--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513131063583216</v>
+        <v>2.513131063583387</v>
       </c>
       <c r="C2">
-        <v>0.3266554121991305</v>
+        <v>0.3266554121994716</v>
       </c>
       <c r="D2">
-        <v>0.01864943648041972</v>
+        <v>0.0186494364803913</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.18351251105139</v>
+        <v>2.183512511051404</v>
       </c>
       <c r="G2">
-        <v>1.593895914392178</v>
+        <v>1.593895914392192</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3049901277281961</v>
+        <v>0.3049901277281606</v>
       </c>
       <c r="J2">
-        <v>0.6012995914644179</v>
+        <v>0.6012995914644392</v>
       </c>
       <c r="K2">
-        <v>0.5653632124567523</v>
+        <v>0.5653632124567451</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166070668539305</v>
+        <v>2.166070668539362</v>
       </c>
       <c r="C3">
-        <v>0.2852191025223192</v>
+        <v>0.285219102522106</v>
       </c>
       <c r="D3">
-        <v>0.01794783997787164</v>
+        <v>0.01794783997788585</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.94963032919263</v>
+        <v>1.949630329192587</v>
       </c>
       <c r="G3">
         <v>1.430730355471567</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.263036931242965</v>
+        <v>0.2630369312429224</v>
       </c>
       <c r="J3">
-        <v>0.5183517866283083</v>
+        <v>0.5183517866283154</v>
       </c>
       <c r="K3">
-        <v>0.4854269181345074</v>
+        <v>0.4854269181345146</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.956124395849656</v>
+        <v>1.956124395849741</v>
       </c>
       <c r="C4">
-        <v>0.2600076549340429</v>
+        <v>0.2600076549337871</v>
       </c>
       <c r="D4">
-        <v>0.01750116408401503</v>
+        <v>0.01750116408379654</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2379765385105017</v>
+        <v>0.2379765385105159</v>
       </c>
       <c r="J4">
         <v>0.4681120636605982</v>
       </c>
       <c r="K4">
-        <v>0.4373557826681846</v>
+        <v>0.437355782668206</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>1.871239440777089</v>
       </c>
       <c r="C5">
-        <v>0.2497786263621862</v>
+        <v>0.2497786263621151</v>
       </c>
       <c r="D5">
-        <v>0.01731529344989546</v>
+        <v>0.01731529344981375</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.755463936223279</v>
+        <v>1.755463936223265</v>
       </c>
       <c r="G5">
-        <v>1.295664644197856</v>
+        <v>1.295664644197828</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2279158809032538</v>
+        <v>0.2279158809032324</v>
       </c>
       <c r="J5">
-        <v>0.4477840367097343</v>
+        <v>0.4477840367097272</v>
       </c>
       <c r="K5">
-        <v>0.417982170032154</v>
+        <v>0.4179821700321469</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,10 +567,10 @@
         <v>1.857181453085076</v>
       </c>
       <c r="C6">
-        <v>0.2480824516754723</v>
+        <v>0.2480824516752023</v>
       </c>
       <c r="D6">
-        <v>0.01728420174397449</v>
+        <v>0.01728420174404555</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>1.746320008888816</v>
       </c>
       <c r="G6">
-        <v>1.289314021277079</v>
+        <v>1.289314021277121</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2262538142556494</v>
+        <v>0.2262538142556352</v>
       </c>
       <c r="J6">
-        <v>0.4444165594888858</v>
+        <v>0.4444165594889</v>
       </c>
       <c r="K6">
-        <v>0.4147771793713417</v>
+        <v>0.4147771793713346</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>1.954977048928242</v>
       </c>
       <c r="C7">
-        <v>0.2598695375821336</v>
+        <v>0.2598695375823468</v>
       </c>
       <c r="D7">
-        <v>0.01749867274752859</v>
+        <v>0.01749867274753392</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2378402731238651</v>
+        <v>0.2378402731238864</v>
       </c>
       <c r="J7">
-        <v>0.4678373612606919</v>
+        <v>0.4678373612607132</v>
       </c>
       <c r="K7">
         <v>0.4370936776032437</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.392733475902844</v>
+        <v>2.392733475902673</v>
       </c>
       <c r="C8">
-        <v>0.3123119744815313</v>
+        <v>0.3123119744818155</v>
       </c>
       <c r="D8">
-        <v>0.01841091607610679</v>
+        <v>0.01841091607600731</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2903642981875478</v>
+        <v>0.2903642981875265</v>
       </c>
       <c r="J8">
-        <v>0.5725377802108014</v>
+        <v>0.5725377802108298</v>
       </c>
       <c r="K8">
         <v>0.5375673224694921</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282377840749064</v>
+        <v>3.282377840749348</v>
       </c>
       <c r="C9">
-        <v>0.4176527427090377</v>
+        <v>0.4176527427092651</v>
       </c>
       <c r="D9">
-        <v>0.02006676228395676</v>
+        <v>0.02006676228392124</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.719254527733312</v>
+        <v>2.719254527733341</v>
       </c>
       <c r="G9">
-        <v>1.969185987426712</v>
+        <v>1.969185987426727</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4001398229686757</v>
+        <v>0.4001398229686544</v>
       </c>
       <c r="J9">
         <v>0.7847870827394274</v>
       </c>
       <c r="K9">
-        <v>0.7445589203519631</v>
+        <v>0.7445589203519845</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.964905486809016</v>
+        <v>3.96490548680913</v>
       </c>
       <c r="C10">
-        <v>0.4976464148709567</v>
+        <v>0.4976464148707294</v>
       </c>
       <c r="D10">
-        <v>0.02119203089869615</v>
+        <v>0.0211920308985647</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.211668095020599</v>
+        <v>3.211668095020627</v>
       </c>
       <c r="G10">
-        <v>2.315617583223499</v>
+        <v>2.315617583223514</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4868929426956825</v>
+        <v>0.4868929426957038</v>
       </c>
       <c r="J10">
-        <v>0.9472670949038076</v>
+        <v>0.9472670949038502</v>
       </c>
       <c r="K10">
-        <v>0.905830308912968</v>
+        <v>0.9058303089129396</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.284289234305334</v>
+        <v>4.284289234305447</v>
       </c>
       <c r="C11">
-        <v>0.5348877184064804</v>
+        <v>0.534887718406452</v>
       </c>
       <c r="D11">
-        <v>0.02168164708483289</v>
+        <v>0.02168164708479381</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.446972133756418</v>
+        <v>3.446972133756447</v>
       </c>
       <c r="G11">
         <v>2.481583863568019</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5282110042146115</v>
+        <v>0.5282110042146471</v>
       </c>
       <c r="J11">
-        <v>1.023215115920124</v>
+        <v>1.023215115920138</v>
       </c>
       <c r="K11">
         <v>0.9820266219559386</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.406767211140391</v>
+        <v>4.406767211140107</v>
       </c>
       <c r="C12">
-        <v>0.5491407004932682</v>
+        <v>0.5491407004927567</v>
       </c>
       <c r="D12">
-        <v>0.02186361376186952</v>
+        <v>0.02186361376188373</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.53798403196771</v>
+        <v>3.537984031967738</v>
       </c>
       <c r="G12">
-        <v>2.545843406757399</v>
+        <v>2.545843406757385</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5441761926708395</v>
+        <v>0.5441761926708608</v>
       </c>
       <c r="J12">
         <v>1.052327391722329</v>
       </c>
       <c r="K12">
-        <v>1.011370466065316</v>
+        <v>1.011370466065301</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>4.380316674551011</v>
       </c>
       <c r="C13">
-        <v>0.5460638781492833</v>
+        <v>0.5460638781490843</v>
       </c>
       <c r="D13">
-        <v>0.02182458107023422</v>
+        <v>0.02182458107023066</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5407226919803776</v>
+        <v>0.540722691980406</v>
       </c>
       <c r="J13">
         <v>1.04604081802438</v>
       </c>
       <c r="K13">
-        <v>1.005027494178321</v>
+        <v>1.005027494178307</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.294333224131435</v>
+        <v>4.294333224131606</v>
       </c>
       <c r="C14">
         <v>0.5360571271734216</v>
       </c>
       <c r="D14">
-        <v>0.02169668800063107</v>
+        <v>0.0216966880006062</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.454419742020463</v>
+        <v>3.454419742020491</v>
       </c>
       <c r="G14">
-        <v>2.486840939140762</v>
+        <v>2.486840939140777</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.241873906114222</v>
+        <v>4.241873906114563</v>
       </c>
       <c r="C15">
-        <v>0.5299482103336572</v>
+        <v>0.5299482103334014</v>
       </c>
       <c r="D15">
         <v>0.02161789425582583</v>
@@ -921,19 +921,19 @@
         <v>3.415552896307133</v>
       </c>
       <c r="G15">
-        <v>2.459408525068056</v>
+        <v>2.459408525068071</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5226976303323809</v>
+        <v>0.5226976303323951</v>
       </c>
       <c r="J15">
-        <v>1.013131686945627</v>
+        <v>1.013131686945655</v>
       </c>
       <c r="K15">
-        <v>0.9718805973096352</v>
+        <v>0.9718805973095783</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.944232982494668</v>
+        <v>3.944232982494611</v>
       </c>
       <c r="C16">
-        <v>0.4952320466692015</v>
+        <v>0.4952320466694289</v>
       </c>
       <c r="D16">
-        <v>0.02115956543194386</v>
+        <v>0.02115956543195097</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4842342989599473</v>
+        <v>0.484234298959997</v>
       </c>
       <c r="J16">
-        <v>0.9423495706487444</v>
+        <v>0.9423495706487159</v>
       </c>
       <c r="K16">
-        <v>0.9009144725775684</v>
+        <v>0.9009144725775968</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.764088624485737</v>
+        <v>3.764088624485851</v>
       </c>
       <c r="C17">
-        <v>0.4741715907157413</v>
+        <v>0.474171590715514</v>
       </c>
       <c r="D17">
-        <v>0.02087252988486199</v>
+        <v>0.02087252988499699</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.065267079280886</v>
+        <v>3.065267079280858</v>
       </c>
       <c r="G17">
-        <v>2.212488541113174</v>
+        <v>2.212488541113146</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4611477630557488</v>
+        <v>0.4611477630556919</v>
       </c>
       <c r="J17">
-        <v>0.8994880454301892</v>
+        <v>0.8994880454301466</v>
       </c>
       <c r="K17">
-        <v>0.8581594324642055</v>
+        <v>0.8581594324642339</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.661294619352589</v>
+        <v>3.661294619352475</v>
       </c>
       <c r="C18">
         <v>0.4621364370602521</v>
       </c>
       <c r="D18">
-        <v>0.02070535369887594</v>
+        <v>0.02070535369887239</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>2.990806484627683</v>
       </c>
       <c r="G18">
-        <v>2.16007720656637</v>
+        <v>2.160077206566385</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4480398846749196</v>
+        <v>0.4480398846748841</v>
       </c>
       <c r="J18">
-        <v>0.8750227149207319</v>
+        <v>0.8750227149207461</v>
       </c>
       <c r="K18">
-        <v>0.8338288886964733</v>
+        <v>0.8338288886965017</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.626624061056532</v>
+        <v>3.626624061056305</v>
       </c>
       <c r="C19">
-        <v>0.4580741971714417</v>
+        <v>0.4580741971714133</v>
       </c>
       <c r="D19">
-        <v>0.02064840011987457</v>
+        <v>0.02064840011997049</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>2.965766908918596</v>
       </c>
       <c r="G19">
-        <v>2.142458724593297</v>
+        <v>2.142458724593325</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4436296692299138</v>
+        <v>0.4436296692299422</v>
       </c>
       <c r="J19">
         <v>0.8667696965407288</v>
       </c>
       <c r="K19">
-        <v>0.8256335083404451</v>
+        <v>0.8256335083404309</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.783178679744537</v>
+        <v>3.783178679744765</v>
       </c>
       <c r="C20">
         <v>0.4764052228016169</v>
       </c>
       <c r="D20">
-        <v>0.02090330231188631</v>
+        <v>0.02090330231190762</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.079131381040639</v>
+        <v>3.079131381040611</v>
       </c>
       <c r="G20">
         <v>2.222250437771564</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4635873251274205</v>
+        <v>0.4635873251274347</v>
       </c>
       <c r="J20">
-        <v>0.9040309193052991</v>
+        <v>0.9040309193052849</v>
       </c>
       <c r="K20">
         <v>0.8626832077517008</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.31954478435415</v>
+        <v>4.319544784354093</v>
       </c>
       <c r="C21">
-        <v>0.5389920224930336</v>
+        <v>0.5389920224933178</v>
       </c>
       <c r="D21">
-        <v>0.02173434869432</v>
+        <v>0.02173434869420632</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.473126699661293</v>
+        <v>3.473126699661265</v>
       </c>
       <c r="G21">
-        <v>2.500046774037969</v>
+        <v>2.500046774037983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.532799794975972</v>
+        <v>0.5327997949759364</v>
       </c>
       <c r="J21">
         <v>1.031595828506724</v>
       </c>
       <c r="K21">
-        <v>0.9904662563956066</v>
+        <v>0.9904662563956492</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.679181767945011</v>
+        <v>4.679181767945181</v>
       </c>
       <c r="C22">
         <v>0.5807897448091524</v>
       </c>
       <c r="D22">
-        <v>0.02225730122555092</v>
+        <v>0.02225730122524539</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>3.741906556177923</v>
       </c>
       <c r="G22">
-        <v>2.689951776894773</v>
+        <v>2.689951776894731</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5799240139418487</v>
+        <v>0.5799240139418345</v>
       </c>
       <c r="J22">
         <v>1.117055688249593</v>
       </c>
       <c r="K22">
-        <v>1.076884222171856</v>
+        <v>1.076884222171813</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.486310239413172</v>
+        <v>4.486310239412944</v>
       </c>
       <c r="C23">
-        <v>0.5583892934147912</v>
+        <v>0.5583892934146206</v>
       </c>
       <c r="D23">
-        <v>0.02198012444481279</v>
+        <v>0.02198012444494779</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.597316617131241</v>
+        <v>3.597316617131213</v>
       </c>
       <c r="G23">
-        <v>2.587754740516502</v>
+        <v>2.587754740516488</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.554580362039367</v>
+        <v>0.5545803620393741</v>
       </c>
       <c r="J23">
-        <v>1.071230788710196</v>
+        <v>1.071230788710238</v>
       </c>
       <c r="K23">
-        <v>1.030464660049503</v>
+        <v>1.030464660049475</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.774545675561455</v>
+        <v>3.774545675561512</v>
       </c>
       <c r="C24">
-        <v>0.4753951730901917</v>
+        <v>0.4753951730899928</v>
       </c>
       <c r="D24">
-        <v>0.02088939679442348</v>
+        <v>0.02088939679432755</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.072860203338905</v>
+        <v>3.072860203338877</v>
       </c>
       <c r="G24">
-        <v>2.217834763736775</v>
+        <v>2.217834763736761</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4624838893940861</v>
+        <v>0.462483889394143</v>
       </c>
       <c r="J24">
-        <v>0.9019765411868264</v>
+        <v>0.9019765411868121</v>
       </c>
       <c r="K24">
-        <v>0.8606372366187145</v>
+        <v>0.8606372366186861</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.037420556012762</v>
+        <v>3.037420556012933</v>
       </c>
       <c r="C25">
-        <v>0.388785083680574</v>
+        <v>0.3887850836808298</v>
       </c>
       <c r="D25">
-        <v>0.01963406132679424</v>
+        <v>0.01963406132691503</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,19 +1301,19 @@
         <v>2.546278695637596</v>
       </c>
       <c r="G25">
-        <v>1.847809826575627</v>
+        <v>1.847809826575613</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3695299944318435</v>
+        <v>0.3695299944318364</v>
       </c>
       <c r="J25">
-        <v>0.7264048824495362</v>
+        <v>0.7264048824495291</v>
       </c>
       <c r="K25">
-        <v>0.687198801869819</v>
+        <v>0.6871988018697976</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513131063583387</v>
+        <v>2.513131063583216</v>
       </c>
       <c r="C2">
-        <v>0.3266554121994716</v>
+        <v>0.3266554121991305</v>
       </c>
       <c r="D2">
-        <v>0.0186494364803913</v>
+        <v>0.01864943648041972</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.183512511051404</v>
+        <v>2.18351251105139</v>
       </c>
       <c r="G2">
-        <v>1.593895914392192</v>
+        <v>1.593895914392178</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3049901277281606</v>
+        <v>0.3049901277281961</v>
       </c>
       <c r="J2">
-        <v>0.6012995914644392</v>
+        <v>0.6012995914644179</v>
       </c>
       <c r="K2">
-        <v>0.5653632124567451</v>
+        <v>0.5653632124567523</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166070668539362</v>
+        <v>2.166070668539305</v>
       </c>
       <c r="C3">
-        <v>0.285219102522106</v>
+        <v>0.2852191025223192</v>
       </c>
       <c r="D3">
-        <v>0.01794783997788585</v>
+        <v>0.01794783997787164</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.949630329192587</v>
+        <v>1.94963032919263</v>
       </c>
       <c r="G3">
         <v>1.430730355471567</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2630369312429224</v>
+        <v>0.263036931242965</v>
       </c>
       <c r="J3">
-        <v>0.5183517866283154</v>
+        <v>0.5183517866283083</v>
       </c>
       <c r="K3">
-        <v>0.4854269181345146</v>
+        <v>0.4854269181345074</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.956124395849741</v>
+        <v>1.956124395849656</v>
       </c>
       <c r="C4">
-        <v>0.2600076549337871</v>
+        <v>0.2600076549340429</v>
       </c>
       <c r="D4">
-        <v>0.01750116408379654</v>
+        <v>0.01750116408401503</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2379765385105159</v>
+        <v>0.2379765385105017</v>
       </c>
       <c r="J4">
         <v>0.4681120636605982</v>
       </c>
       <c r="K4">
-        <v>0.437355782668206</v>
+        <v>0.4373557826681846</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>1.871239440777089</v>
       </c>
       <c r="C5">
-        <v>0.2497786263621151</v>
+        <v>0.2497786263621862</v>
       </c>
       <c r="D5">
-        <v>0.01731529344981375</v>
+        <v>0.01731529344989546</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.755463936223265</v>
+        <v>1.755463936223279</v>
       </c>
       <c r="G5">
-        <v>1.295664644197828</v>
+        <v>1.295664644197856</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2279158809032324</v>
+        <v>0.2279158809032538</v>
       </c>
       <c r="J5">
-        <v>0.4477840367097272</v>
+        <v>0.4477840367097343</v>
       </c>
       <c r="K5">
-        <v>0.4179821700321469</v>
+        <v>0.417982170032154</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,10 +567,10 @@
         <v>1.857181453085076</v>
       </c>
       <c r="C6">
-        <v>0.2480824516752023</v>
+        <v>0.2480824516754723</v>
       </c>
       <c r="D6">
-        <v>0.01728420174404555</v>
+        <v>0.01728420174397449</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>1.746320008888816</v>
       </c>
       <c r="G6">
-        <v>1.289314021277121</v>
+        <v>1.289314021277079</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2262538142556352</v>
+        <v>0.2262538142556494</v>
       </c>
       <c r="J6">
-        <v>0.4444165594889</v>
+        <v>0.4444165594888858</v>
       </c>
       <c r="K6">
-        <v>0.4147771793713346</v>
+        <v>0.4147771793713417</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>1.954977048928242</v>
       </c>
       <c r="C7">
-        <v>0.2598695375823468</v>
+        <v>0.2598695375821336</v>
       </c>
       <c r="D7">
-        <v>0.01749867274753392</v>
+        <v>0.01749867274752859</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2378402731238864</v>
+        <v>0.2378402731238651</v>
       </c>
       <c r="J7">
-        <v>0.4678373612607132</v>
+        <v>0.4678373612606919</v>
       </c>
       <c r="K7">
         <v>0.4370936776032437</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.392733475902673</v>
+        <v>2.392733475902844</v>
       </c>
       <c r="C8">
-        <v>0.3123119744818155</v>
+        <v>0.3123119744815313</v>
       </c>
       <c r="D8">
-        <v>0.01841091607600731</v>
+        <v>0.01841091607610679</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2903642981875265</v>
+        <v>0.2903642981875478</v>
       </c>
       <c r="J8">
-        <v>0.5725377802108298</v>
+        <v>0.5725377802108014</v>
       </c>
       <c r="K8">
         <v>0.5375673224694921</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282377840749348</v>
+        <v>3.282377840749064</v>
       </c>
       <c r="C9">
-        <v>0.4176527427092651</v>
+        <v>0.4176527427090377</v>
       </c>
       <c r="D9">
-        <v>0.02006676228392124</v>
+        <v>0.02006676228395676</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.719254527733341</v>
+        <v>2.719254527733312</v>
       </c>
       <c r="G9">
-        <v>1.969185987426727</v>
+        <v>1.969185987426712</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4001398229686544</v>
+        <v>0.4001398229686757</v>
       </c>
       <c r="J9">
         <v>0.7847870827394274</v>
       </c>
       <c r="K9">
-        <v>0.7445589203519845</v>
+        <v>0.7445589203519631</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.96490548680913</v>
+        <v>3.964905486809016</v>
       </c>
       <c r="C10">
-        <v>0.4976464148707294</v>
+        <v>0.4976464148709567</v>
       </c>
       <c r="D10">
-        <v>0.0211920308985647</v>
+        <v>0.02119203089869615</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.211668095020627</v>
+        <v>3.211668095020599</v>
       </c>
       <c r="G10">
-        <v>2.315617583223514</v>
+        <v>2.315617583223499</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4868929426957038</v>
+        <v>0.4868929426956825</v>
       </c>
       <c r="J10">
-        <v>0.9472670949038502</v>
+        <v>0.9472670949038076</v>
       </c>
       <c r="K10">
-        <v>0.9058303089129396</v>
+        <v>0.905830308912968</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.284289234305447</v>
+        <v>4.284289234305334</v>
       </c>
       <c r="C11">
-        <v>0.534887718406452</v>
+        <v>0.5348877184064804</v>
       </c>
       <c r="D11">
-        <v>0.02168164708479381</v>
+        <v>0.02168164708483289</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.446972133756447</v>
+        <v>3.446972133756418</v>
       </c>
       <c r="G11">
         <v>2.481583863568019</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5282110042146471</v>
+        <v>0.5282110042146115</v>
       </c>
       <c r="J11">
-        <v>1.023215115920138</v>
+        <v>1.023215115920124</v>
       </c>
       <c r="K11">
         <v>0.9820266219559386</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.406767211140107</v>
+        <v>4.406767211140391</v>
       </c>
       <c r="C12">
-        <v>0.5491407004927567</v>
+        <v>0.5491407004932682</v>
       </c>
       <c r="D12">
-        <v>0.02186361376188373</v>
+        <v>0.02186361376186952</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.537984031967738</v>
+        <v>3.53798403196771</v>
       </c>
       <c r="G12">
-        <v>2.545843406757385</v>
+        <v>2.545843406757399</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5441761926708608</v>
+        <v>0.5441761926708395</v>
       </c>
       <c r="J12">
         <v>1.052327391722329</v>
       </c>
       <c r="K12">
-        <v>1.011370466065301</v>
+        <v>1.011370466065316</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>4.380316674551011</v>
       </c>
       <c r="C13">
-        <v>0.5460638781490843</v>
+        <v>0.5460638781492833</v>
       </c>
       <c r="D13">
-        <v>0.02182458107023066</v>
+        <v>0.02182458107023422</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.540722691980406</v>
+        <v>0.5407226919803776</v>
       </c>
       <c r="J13">
         <v>1.04604081802438</v>
       </c>
       <c r="K13">
-        <v>1.005027494178307</v>
+        <v>1.005027494178321</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.294333224131606</v>
+        <v>4.294333224131435</v>
       </c>
       <c r="C14">
         <v>0.5360571271734216</v>
       </c>
       <c r="D14">
-        <v>0.0216966880006062</v>
+        <v>0.02169668800063107</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.454419742020491</v>
+        <v>3.454419742020463</v>
       </c>
       <c r="G14">
-        <v>2.486840939140777</v>
+        <v>2.486840939140762</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.241873906114563</v>
+        <v>4.241873906114222</v>
       </c>
       <c r="C15">
-        <v>0.5299482103334014</v>
+        <v>0.5299482103336572</v>
       </c>
       <c r="D15">
         <v>0.02161789425582583</v>
@@ -921,19 +921,19 @@
         <v>3.415552896307133</v>
       </c>
       <c r="G15">
-        <v>2.459408525068071</v>
+        <v>2.459408525068056</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5226976303323951</v>
+        <v>0.5226976303323809</v>
       </c>
       <c r="J15">
-        <v>1.013131686945655</v>
+        <v>1.013131686945627</v>
       </c>
       <c r="K15">
-        <v>0.9718805973095783</v>
+        <v>0.9718805973096352</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.944232982494611</v>
+        <v>3.944232982494668</v>
       </c>
       <c r="C16">
-        <v>0.4952320466694289</v>
+        <v>0.4952320466692015</v>
       </c>
       <c r="D16">
-        <v>0.02115956543195097</v>
+        <v>0.02115956543194386</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.484234298959997</v>
+        <v>0.4842342989599473</v>
       </c>
       <c r="J16">
-        <v>0.9423495706487159</v>
+        <v>0.9423495706487444</v>
       </c>
       <c r="K16">
-        <v>0.9009144725775968</v>
+        <v>0.9009144725775684</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.764088624485851</v>
+        <v>3.764088624485737</v>
       </c>
       <c r="C17">
-        <v>0.474171590715514</v>
+        <v>0.4741715907157413</v>
       </c>
       <c r="D17">
-        <v>0.02087252988499699</v>
+        <v>0.02087252988486199</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.065267079280858</v>
+        <v>3.065267079280886</v>
       </c>
       <c r="G17">
-        <v>2.212488541113146</v>
+        <v>2.212488541113174</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4611477630556919</v>
+        <v>0.4611477630557488</v>
       </c>
       <c r="J17">
-        <v>0.8994880454301466</v>
+        <v>0.8994880454301892</v>
       </c>
       <c r="K17">
-        <v>0.8581594324642339</v>
+        <v>0.8581594324642055</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.661294619352475</v>
+        <v>3.661294619352589</v>
       </c>
       <c r="C18">
         <v>0.4621364370602521</v>
       </c>
       <c r="D18">
-        <v>0.02070535369887239</v>
+        <v>0.02070535369887594</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>2.990806484627683</v>
       </c>
       <c r="G18">
-        <v>2.160077206566385</v>
+        <v>2.16007720656637</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4480398846748841</v>
+        <v>0.4480398846749196</v>
       </c>
       <c r="J18">
-        <v>0.8750227149207461</v>
+        <v>0.8750227149207319</v>
       </c>
       <c r="K18">
-        <v>0.8338288886965017</v>
+        <v>0.8338288886964733</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.626624061056305</v>
+        <v>3.626624061056532</v>
       </c>
       <c r="C19">
-        <v>0.4580741971714133</v>
+        <v>0.4580741971714417</v>
       </c>
       <c r="D19">
-        <v>0.02064840011997049</v>
+        <v>0.02064840011987457</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>2.965766908918596</v>
       </c>
       <c r="G19">
-        <v>2.142458724593325</v>
+        <v>2.142458724593297</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4436296692299422</v>
+        <v>0.4436296692299138</v>
       </c>
       <c r="J19">
         <v>0.8667696965407288</v>
       </c>
       <c r="K19">
-        <v>0.8256335083404309</v>
+        <v>0.8256335083404451</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.783178679744765</v>
+        <v>3.783178679744537</v>
       </c>
       <c r="C20">
         <v>0.4764052228016169</v>
       </c>
       <c r="D20">
-        <v>0.02090330231190762</v>
+        <v>0.02090330231188631</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.079131381040611</v>
+        <v>3.079131381040639</v>
       </c>
       <c r="G20">
         <v>2.222250437771564</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4635873251274347</v>
+        <v>0.4635873251274205</v>
       </c>
       <c r="J20">
-        <v>0.9040309193052849</v>
+        <v>0.9040309193052991</v>
       </c>
       <c r="K20">
         <v>0.8626832077517008</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.319544784354093</v>
+        <v>4.31954478435415</v>
       </c>
       <c r="C21">
-        <v>0.5389920224933178</v>
+        <v>0.5389920224930336</v>
       </c>
       <c r="D21">
-        <v>0.02173434869420632</v>
+        <v>0.02173434869432</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.473126699661265</v>
+        <v>3.473126699661293</v>
       </c>
       <c r="G21">
-        <v>2.500046774037983</v>
+        <v>2.500046774037969</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5327997949759364</v>
+        <v>0.532799794975972</v>
       </c>
       <c r="J21">
         <v>1.031595828506724</v>
       </c>
       <c r="K21">
-        <v>0.9904662563956492</v>
+        <v>0.9904662563956066</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.679181767945181</v>
+        <v>4.679181767945011</v>
       </c>
       <c r="C22">
         <v>0.5807897448091524</v>
       </c>
       <c r="D22">
-        <v>0.02225730122524539</v>
+        <v>0.02225730122555092</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>3.741906556177923</v>
       </c>
       <c r="G22">
-        <v>2.689951776894731</v>
+        <v>2.689951776894773</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5799240139418345</v>
+        <v>0.5799240139418487</v>
       </c>
       <c r="J22">
         <v>1.117055688249593</v>
       </c>
       <c r="K22">
-        <v>1.076884222171813</v>
+        <v>1.076884222171856</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.486310239412944</v>
+        <v>4.486310239413172</v>
       </c>
       <c r="C23">
-        <v>0.5583892934146206</v>
+        <v>0.5583892934147912</v>
       </c>
       <c r="D23">
-        <v>0.02198012444494779</v>
+        <v>0.02198012444481279</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.597316617131213</v>
+        <v>3.597316617131241</v>
       </c>
       <c r="G23">
-        <v>2.587754740516488</v>
+        <v>2.587754740516502</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5545803620393741</v>
+        <v>0.554580362039367</v>
       </c>
       <c r="J23">
-        <v>1.071230788710238</v>
+        <v>1.071230788710196</v>
       </c>
       <c r="K23">
-        <v>1.030464660049475</v>
+        <v>1.030464660049503</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.774545675561512</v>
+        <v>3.774545675561455</v>
       </c>
       <c r="C24">
-        <v>0.4753951730899928</v>
+        <v>0.4753951730901917</v>
       </c>
       <c r="D24">
-        <v>0.02088939679432755</v>
+        <v>0.02088939679442348</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.072860203338877</v>
+        <v>3.072860203338905</v>
       </c>
       <c r="G24">
-        <v>2.217834763736761</v>
+        <v>2.217834763736775</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.462483889394143</v>
+        <v>0.4624838893940861</v>
       </c>
       <c r="J24">
-        <v>0.9019765411868121</v>
+        <v>0.9019765411868264</v>
       </c>
       <c r="K24">
-        <v>0.8606372366186861</v>
+        <v>0.8606372366187145</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.037420556012933</v>
+        <v>3.037420556012762</v>
       </c>
       <c r="C25">
-        <v>0.3887850836808298</v>
+        <v>0.388785083680574</v>
       </c>
       <c r="D25">
-        <v>0.01963406132691503</v>
+        <v>0.01963406132679424</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,19 +1301,19 @@
         <v>2.546278695637596</v>
       </c>
       <c r="G25">
-        <v>1.847809826575613</v>
+        <v>1.847809826575627</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3695299944318364</v>
+        <v>0.3695299944318435</v>
       </c>
       <c r="J25">
-        <v>0.7264048824495291</v>
+        <v>0.7264048824495362</v>
       </c>
       <c r="K25">
-        <v>0.6871988018697976</v>
+        <v>0.687198801869819</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513131063583216</v>
+        <v>2.513045913394592</v>
       </c>
       <c r="C2">
-        <v>0.3266554121991305</v>
+        <v>0.3265937042979488</v>
       </c>
       <c r="D2">
-        <v>0.01864943648041972</v>
+        <v>0.0187145466772769</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.18351251105139</v>
+        <v>2.179193716415</v>
       </c>
       <c r="G2">
-        <v>1.593895914392178</v>
+        <v>0.5085444241160388</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.085142827200556</v>
       </c>
       <c r="I2">
-        <v>0.3049901277281961</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6012995914644179</v>
+        <v>0.3048862144753457</v>
       </c>
       <c r="K2">
-        <v>0.5653632124567523</v>
+        <v>0.601261661517718</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5654737352517003</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166070668539305</v>
+        <v>2.166030380410689</v>
       </c>
       <c r="C3">
-        <v>0.2852191025223192</v>
+        <v>0.2851774485051095</v>
       </c>
       <c r="D3">
-        <v>0.01794783997787164</v>
+        <v>0.01800128121820777</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.94963032919263</v>
+        <v>1.945818262608768</v>
       </c>
       <c r="G3">
-        <v>1.430730355471567</v>
+        <v>0.4514284261115904</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.979681245455609</v>
       </c>
       <c r="I3">
-        <v>0.263036931242965</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5183517866283083</v>
+        <v>0.2629478126630005</v>
       </c>
       <c r="K3">
-        <v>0.4854269181345074</v>
+        <v>0.5183290269806662</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4855283143597049</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.956124395849656</v>
+        <v>1.956106030049199</v>
       </c>
       <c r="C4">
-        <v>0.2600076549340429</v>
+        <v>0.2599774834434498</v>
       </c>
       <c r="D4">
-        <v>0.01750116408401503</v>
+        <v>0.01754739782385428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.810905319150493</v>
+        <v>1.807397682188281</v>
       </c>
       <c r="G4">
-        <v>1.334190009189939</v>
+        <v>0.417540912574168</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9173816172635156</v>
       </c>
       <c r="I4">
-        <v>0.2379765385105017</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4681120636605982</v>
+        <v>0.2378961445520105</v>
       </c>
       <c r="K4">
-        <v>0.4373557826681846</v>
+        <v>0.4680971863859682</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4374508356992095</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871239440777089</v>
+        <v>1.87122878027202</v>
       </c>
       <c r="C5">
-        <v>0.2497786263621862</v>
+        <v>0.2497529576152431</v>
       </c>
       <c r="D5">
-        <v>0.01731529344989546</v>
+        <v>0.01735857825904041</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.755463936223279</v>
+        <v>1.752078958112904</v>
       </c>
       <c r="G5">
-        <v>1.295664644197856</v>
+        <v>0.4039944894611125</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8925449627144815</v>
       </c>
       <c r="I5">
-        <v>0.2279158809032538</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4477840367097343</v>
+        <v>0.2278389711300122</v>
       </c>
       <c r="K5">
-        <v>0.417982170032154</v>
+        <v>0.4477720595080683</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4180744818966176</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857181453085076</v>
+        <v>1.857172002867884</v>
       </c>
       <c r="C6">
-        <v>0.2480824516754723</v>
+        <v>0.2480575208261513</v>
       </c>
       <c r="D6">
-        <v>0.01728420174397449</v>
+        <v>0.01732699614281152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.746320008888816</v>
+        <v>1.742955321499096</v>
       </c>
       <c r="G6">
-        <v>1.289314021277079</v>
+        <v>0.4017600587798</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8884523064530327</v>
       </c>
       <c r="I6">
-        <v>0.2262538142556494</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4444165594888858</v>
+        <v>0.2261774792367532</v>
       </c>
       <c r="K6">
-        <v>0.4147771793713417</v>
+        <v>0.4444050462941505</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4148690274107025</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.954977048928242</v>
+        <v>1.95495879178759</v>
       </c>
       <c r="C7">
-        <v>0.2598695375821336</v>
+        <v>0.25983942749167</v>
       </c>
       <c r="D7">
-        <v>0.01749867274752859</v>
+        <v>0.01754486676649414</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.810153375225127</v>
+        <v>1.806647397790186</v>
       </c>
       <c r="G7">
-        <v>1.333667266902026</v>
+        <v>0.4173571988465739</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9170445139080101</v>
       </c>
       <c r="I7">
-        <v>0.2378402731238651</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4678373612606919</v>
+        <v>0.2377599264192227</v>
       </c>
       <c r="K7">
-        <v>0.4370936776032437</v>
+        <v>0.4678225243015035</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4371886942627512</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.392733475902844</v>
+        <v>2.39266508041834</v>
       </c>
       <c r="C8">
-        <v>0.3123119744815313</v>
+        <v>0.3122573742473946</v>
       </c>
       <c r="D8">
-        <v>0.01841091607610679</v>
+        <v>0.01847201098922113</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.101770835379128</v>
+        <v>2.097628335182463</v>
       </c>
       <c r="G8">
-        <v>1.536816587945822</v>
+        <v>0.4885839409645456</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.048228544646946</v>
       </c>
       <c r="I8">
-        <v>0.2903642981875478</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5725377802108014</v>
+        <v>0.2902655732564625</v>
       </c>
       <c r="K8">
-        <v>0.5375673224694921</v>
+        <v>0.5725054090660606</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5376748712875354</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282377840749064</v>
+        <v>3.282156732967906</v>
       </c>
       <c r="C9">
-        <v>0.4176527427090377</v>
+        <v>0.4175418415292143</v>
       </c>
       <c r="D9">
-        <v>0.02006676228395676</v>
+        <v>0.02015679623403344</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.719254527733312</v>
+        <v>2.713795669876788</v>
       </c>
       <c r="G9">
-        <v>1.969185987426712</v>
+        <v>0.6393628276031791</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.328292286114745</v>
       </c>
       <c r="I9">
-        <v>0.4001398229686757</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7847870827394274</v>
+        <v>0.4000011505267267</v>
       </c>
       <c r="K9">
-        <v>0.7445589203519631</v>
+        <v>0.784706439995027</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.7446835417213151</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.964905486809016</v>
+        <v>3.964522696566348</v>
       </c>
       <c r="C10">
-        <v>0.4976464148709567</v>
+        <v>0.4974863281512398</v>
       </c>
       <c r="D10">
-        <v>0.02119203089869615</v>
+        <v>0.02130324944040041</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.211668095020599</v>
+        <v>3.205175942952536</v>
       </c>
       <c r="G10">
-        <v>2.315617583223499</v>
+        <v>0.7596408636984933</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.553249522796989</v>
       </c>
       <c r="I10">
-        <v>0.4868929426956825</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9472670949038076</v>
+        <v>0.4867206809861173</v>
       </c>
       <c r="K10">
-        <v>0.905830308912968</v>
+        <v>0.947138322148902</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.9059600155491125</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.284289234305334</v>
+        <v>4.283817502741215</v>
       </c>
       <c r="C11">
-        <v>0.5348877184064804</v>
+        <v>0.5347027829018032</v>
       </c>
       <c r="D11">
-        <v>0.02168164708483289</v>
+        <v>0.02180251184532267</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.446972133756418</v>
+        <v>3.43998869268512</v>
       </c>
       <c r="G11">
-        <v>2.481583863568019</v>
+        <v>0.817140593157319</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.661148322333318</v>
       </c>
       <c r="I11">
-        <v>0.5282110042146115</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.023215115920124</v>
+        <v>0.5280219787245528</v>
       </c>
       <c r="K11">
-        <v>0.9820266219559386</v>
+        <v>1.023060509225104</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.982156144948334</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.406767211140391</v>
+        <v>4.406259096678355</v>
       </c>
       <c r="C12">
-        <v>0.5491407004932682</v>
+        <v>0.5489459191941819</v>
       </c>
       <c r="D12">
-        <v>0.02186361376186952</v>
+        <v>0.02198813511201436</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.53798403196771</v>
+        <v>3.530810790945651</v>
       </c>
       <c r="G12">
-        <v>2.545843406757399</v>
+        <v>0.8393854098667362</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.702943927257934</v>
       </c>
       <c r="I12">
-        <v>0.5441761926708395</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.052327391722329</v>
+        <v>0.5439805434285958</v>
       </c>
       <c r="K12">
-        <v>1.011370466065316</v>
+        <v>1.05216231102186</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.011499462699561</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.380316674551011</v>
+        <v>4.379816524914759</v>
       </c>
       <c r="C13">
-        <v>0.5460638781492833</v>
+        <v>0.5458712381645228</v>
       </c>
       <c r="D13">
-        <v>0.02182458107023422</v>
+        <v>0.02194831469732961</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.518293205988641</v>
+        <v>3.511161021710166</v>
       </c>
       <c r="G13">
-        <v>2.531937528713726</v>
+        <v>0.8345724081355286</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.693898439492429</v>
       </c>
       <c r="I13">
-        <v>0.5407226919803776</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.04604081802438</v>
+        <v>0.5405284827061578</v>
       </c>
       <c r="K13">
-        <v>1.005027494178321</v>
+        <v>1.045878026099231</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.005156626318467</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.294333224131435</v>
+        <v>4.293858556664077</v>
       </c>
       <c r="C14">
-        <v>0.5360571271734216</v>
+        <v>0.5358713909060953</v>
       </c>
       <c r="D14">
-        <v>0.02169668800063107</v>
+        <v>0.02181785349991472</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.454419742020463</v>
+        <v>3.447420765871925</v>
       </c>
       <c r="G14">
-        <v>2.486840939140762</v>
+        <v>0.8189608076477128</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.66456724358585</v>
       </c>
       <c r="I14">
-        <v>0.5295177471833483</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.025602762457495</v>
+        <v>0.5293281826916143</v>
       </c>
       <c r="K14">
-        <v>0.9844304175575189</v>
+        <v>1.025447308720743</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.9845599070508939</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.241873906114222</v>
+        <v>4.241414478956187</v>
       </c>
       <c r="C15">
-        <v>0.5299482103336572</v>
+        <v>0.5297666433463064</v>
       </c>
       <c r="D15">
-        <v>0.02161789425582583</v>
+        <v>0.02173748727383185</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.415552896307133</v>
+        <v>3.408635001115556</v>
       </c>
       <c r="G15">
-        <v>2.459408525068056</v>
+        <v>0.809461853118691</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.646727425110043</v>
       </c>
       <c r="I15">
-        <v>0.5226976303323809</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.013131686945627</v>
+        <v>0.5225108728860732</v>
       </c>
       <c r="K15">
-        <v>0.9718805973096352</v>
+        <v>1.012980633897527</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.9720102428758679</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.944232982494668</v>
+        <v>3.943855655476284</v>
       </c>
       <c r="C16">
-        <v>0.4952320466692015</v>
+        <v>0.4950735275720888</v>
       </c>
       <c r="D16">
-        <v>0.02115956543194386</v>
+        <v>0.0212701539571718</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.196541025851218</v>
+        <v>3.190080496023882</v>
       </c>
       <c r="G16">
-        <v>2.30495683711365</v>
+        <v>0.7559449443293147</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.546321265864108</v>
       </c>
       <c r="I16">
-        <v>0.4842342989599473</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9423495706487444</v>
+        <v>0.4840630979633573</v>
       </c>
       <c r="K16">
-        <v>0.9009144725775684</v>
+        <v>0.9422223968320793</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9010441331579813</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.764088624485737</v>
+        <v>3.763757403283421</v>
       </c>
       <c r="C17">
-        <v>0.4741715907157413</v>
+        <v>0.4740265246171589</v>
       </c>
       <c r="D17">
-        <v>0.02087252988486199</v>
+        <v>0.02097759843771385</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.065267079280886</v>
+        <v>3.05908122746726</v>
       </c>
       <c r="G17">
-        <v>2.212488541113174</v>
+        <v>0.7238742158971263</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.486241473222833</v>
       </c>
       <c r="I17">
-        <v>0.4611477630557488</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8994880454301892</v>
+        <v>0.4609856856903107</v>
       </c>
       <c r="K17">
-        <v>0.8581594324642055</v>
+        <v>0.8993744306310418</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.8582884004817402</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.661294619352589</v>
+        <v>3.660988502842599</v>
       </c>
       <c r="C18">
-        <v>0.4621364370602521</v>
+        <v>0.4619988815216516</v>
       </c>
       <c r="D18">
-        <v>0.02070535369887594</v>
+        <v>0.02080724801192702</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.990806484627683</v>
+        <v>2.984776670574519</v>
       </c>
       <c r="G18">
-        <v>2.16007720656637</v>
+        <v>0.7056852993152631</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.452199666860921</v>
       </c>
       <c r="I18">
-        <v>0.4480398846749196</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8750227149207319</v>
+        <v>0.4478829198273075</v>
       </c>
       <c r="K18">
-        <v>0.8338288886964733</v>
+        <v>0.8749165369033705</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.8339572304368943</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.626624061056532</v>
+        <v>3.626326215014558</v>
       </c>
       <c r="C19">
-        <v>0.4580741971714417</v>
+        <v>0.4579391477530521</v>
       </c>
       <c r="D19">
-        <v>0.02064840011987457</v>
+        <v>0.02074921974233135</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.965766908918596</v>
+        <v>2.959789611067151</v>
       </c>
       <c r="G19">
-        <v>2.142458724593297</v>
+        <v>0.6995690583628544</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.440758226644832</v>
       </c>
       <c r="I19">
-        <v>0.4436296692299138</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8667696965407288</v>
+        <v>0.4434744138372224</v>
       </c>
       <c r="K19">
-        <v>0.8256335083404451</v>
+        <v>0.8666659777195775</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.8257616014839613</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.783178679744537</v>
+        <v>3.782842700088793</v>
       </c>
       <c r="C20">
-        <v>0.4764052228016169</v>
+        <v>0.476258748661138</v>
       </c>
       <c r="D20">
-        <v>0.02090330231188631</v>
+        <v>0.02100895838584549</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.079131381040639</v>
+        <v>3.072916495764247</v>
       </c>
       <c r="G20">
-        <v>2.222250437771564</v>
+        <v>0.7272610907581054</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.492582896272893</v>
       </c>
       <c r="I20">
-        <v>0.4635873251274205</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9040309193052991</v>
+        <v>0.4634242909267243</v>
       </c>
       <c r="K20">
-        <v>0.8626832077517008</v>
+        <v>0.9039158994165177</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.8628122737158179</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.31954478435415</v>
+        <v>4.319062709923628</v>
       </c>
       <c r="C21">
-        <v>0.5389920224930336</v>
+        <v>0.5388042709919887</v>
       </c>
       <c r="D21">
-        <v>0.02173434869432</v>
+        <v>0.02185626839142429</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.473126699661293</v>
+        <v>3.46608870539626</v>
       </c>
       <c r="G21">
-        <v>2.500046774037969</v>
+        <v>0.823532917366137</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.673155914556474</v>
       </c>
       <c r="I21">
-        <v>0.532799794975972</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.031595828506724</v>
+        <v>0.5326088742561339</v>
       </c>
       <c r="K21">
-        <v>0.9904662563956066</v>
+        <v>1.031438239250065</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9905956542275192</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.679181767945011</v>
+        <v>4.67858815138112</v>
       </c>
       <c r="C22">
-        <v>0.5807897448091524</v>
+        <v>0.5805724247334183</v>
       </c>
       <c r="D22">
-        <v>0.02225730122555092</v>
+        <v>0.02238987357382882</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.741906556177923</v>
+        <v>3.734308265764724</v>
       </c>
       <c r="G22">
-        <v>2.689951776894773</v>
+        <v>0.8892378649711929</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.796709614791951</v>
       </c>
       <c r="I22">
-        <v>0.5799240139418487</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.117055688249593</v>
+        <v>0.5797132196349253</v>
       </c>
       <c r="K22">
-        <v>1.076884222171856</v>
+        <v>1.116866170364631</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.077011109282722</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.486310239413172</v>
+        <v>4.485777814629387</v>
       </c>
       <c r="C23">
-        <v>0.5583892934147912</v>
+        <v>0.5581880226491478</v>
       </c>
       <c r="D23">
-        <v>0.02198012444481279</v>
+        <v>0.02210700821582634</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.597316617131241</v>
+        <v>3.590019682931171</v>
       </c>
       <c r="G23">
-        <v>2.587754740516502</v>
+        <v>0.8538887986261727</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.730209140476234</v>
       </c>
       <c r="I23">
-        <v>0.554580362039367</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.071230788710196</v>
+        <v>0.554380350411499</v>
       </c>
       <c r="K23">
-        <v>1.030464660049503</v>
+        <v>1.071058735868618</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.030593175979703</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.774545675561455</v>
+        <v>3.774211851534517</v>
       </c>
       <c r="C24">
-        <v>0.4753951730901917</v>
+        <v>0.4752493362163364</v>
       </c>
       <c r="D24">
-        <v>0.02088939679442348</v>
+        <v>0.02099478725235215</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.072860203338905</v>
+        <v>3.066658449889587</v>
       </c>
       <c r="G24">
-        <v>2.217834763736775</v>
+        <v>0.7257291143233147</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.489714395095163</v>
       </c>
       <c r="I24">
-        <v>0.4624838893940861</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9019765411868264</v>
+        <v>0.4623212881877592</v>
       </c>
       <c r="K24">
-        <v>0.8606372366187145</v>
+        <v>0.9018621576465762</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.8607662590046203</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.037420556012762</v>
+        <v>3.037248097212455</v>
       </c>
       <c r="C25">
-        <v>0.388785083680574</v>
+        <v>0.3886905587381193</v>
       </c>
       <c r="D25">
-        <v>0.01963406132679424</v>
+        <v>0.01971628767702782</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.546278695637596</v>
+        <v>2.541185546589588</v>
       </c>
       <c r="G25">
-        <v>1.847809826575627</v>
+        <v>0.5971231662135068</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.249579742738703</v>
       </c>
       <c r="I25">
-        <v>0.3695299944318435</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7264048824495362</v>
+        <v>0.3694027147640355</v>
       </c>
       <c r="K25">
-        <v>0.687198801869819</v>
+        <v>0.7263391751581167</v>
       </c>
       <c r="L25">
+        <v>0.6873198673735175</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513045913394592</v>
+        <v>4.091597877811978</v>
       </c>
       <c r="C2">
-        <v>0.3265937042979488</v>
+        <v>0.7062560834046678</v>
       </c>
       <c r="D2">
-        <v>0.0187145466772769</v>
+        <v>0.02984540745590891</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.179193716415</v>
+        <v>3.074101711948558</v>
       </c>
       <c r="G2">
-        <v>0.5085444241160388</v>
+        <v>0.0008360435607812571</v>
       </c>
       <c r="H2">
-        <v>1.085142827200556</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3048862144753457</v>
+        <v>0.06391423049913492</v>
       </c>
       <c r="K2">
-        <v>0.601261661517718</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5654737352517003</v>
+        <v>0.1649472048344407</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6361719899852645</v>
+      </c>
+      <c r="N2">
+        <v>1.7505098755137</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166030380410689</v>
+        <v>3.607017861247016</v>
       </c>
       <c r="C3">
-        <v>0.2851774485051095</v>
+        <v>0.6076588084478374</v>
       </c>
       <c r="D3">
-        <v>0.01800128121820777</v>
+        <v>0.0254157090056637</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.945818262608768</v>
+        <v>2.879884280436002</v>
       </c>
       <c r="G3">
-        <v>0.4514284261115904</v>
+        <v>0.0008459060121768857</v>
       </c>
       <c r="H3">
-        <v>0.979681245455609</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2629478126630005</v>
+        <v>0.06406660643631579</v>
       </c>
       <c r="K3">
-        <v>0.5183290269806662</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4855283143597049</v>
+        <v>0.1531408698692402</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5656878531753406</v>
+      </c>
+      <c r="N3">
+        <v>1.788397744342632</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.956106030049199</v>
+        <v>3.316352307106399</v>
       </c>
       <c r="C4">
-        <v>0.2599774834434498</v>
+        <v>0.5482272574757019</v>
       </c>
       <c r="D4">
-        <v>0.01754739782385428</v>
+        <v>0.02279721854290528</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.807397682188281</v>
+        <v>2.766655142824263</v>
       </c>
       <c r="G4">
-        <v>0.417540912574168</v>
+        <v>0.0008521199654638084</v>
       </c>
       <c r="H4">
-        <v>0.9173816172635156</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2378961445520105</v>
+        <v>0.06416947759429537</v>
       </c>
       <c r="K4">
-        <v>0.4680971863859682</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4374508356992095</v>
+        <v>0.1461306593293656</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5234663922160223</v>
+      </c>
+      <c r="N4">
+        <v>1.813845264172045</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.87122878027202</v>
+        <v>3.19943502542219</v>
       </c>
       <c r="C5">
-        <v>0.2497529576152431</v>
+        <v>0.524246083828416</v>
       </c>
       <c r="D5">
-        <v>0.01735857825904041</v>
+        <v>0.02175193090624106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.752078958112904</v>
+        <v>2.721896661839594</v>
       </c>
       <c r="G5">
-        <v>0.4039944894611125</v>
+        <v>0.0008546940853457937</v>
       </c>
       <c r="H5">
-        <v>0.8925449627144815</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2278389711300122</v>
+        <v>0.06421362347259496</v>
       </c>
       <c r="K5">
-        <v>0.4477720595080683</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4180744818966176</v>
+        <v>0.1433293560369364</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5064980609272425</v>
+      </c>
+      <c r="N5">
+        <v>1.824736516772361</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857172002867884</v>
+        <v>3.180108085881898</v>
       </c>
       <c r="C6">
-        <v>0.2480575208261513</v>
+        <v>0.5202772584370337</v>
       </c>
       <c r="D6">
-        <v>0.01732699614281152</v>
+        <v>0.02157957456613246</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.742955321499096</v>
+        <v>2.714544492795213</v>
       </c>
       <c r="G6">
-        <v>0.4017600587798</v>
+        <v>0.0008551241028124393</v>
       </c>
       <c r="H6">
-        <v>0.8884523064530327</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2261774792367532</v>
+        <v>0.06422108512081959</v>
       </c>
       <c r="K6">
-        <v>0.4444050462941505</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4148690274107025</v>
+        <v>0.1428674198805382</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5036940315833505</v>
+      </c>
+      <c r="N6">
+        <v>1.826575706520217</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.95495879178759</v>
+        <v>3.314769565951508</v>
       </c>
       <c r="C7">
-        <v>0.25983942749167</v>
+        <v>0.5479029279782992</v>
       </c>
       <c r="D7">
-        <v>0.01754486676649414</v>
+        <v>0.02278303794056313</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.806647397790186</v>
+        <v>2.766046077783741</v>
       </c>
       <c r="G7">
-        <v>0.4173571988465739</v>
+        <v>0.0008521545088141555</v>
       </c>
       <c r="H7">
-        <v>0.9170445139080101</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2377599264192227</v>
+        <v>0.06417006409519299</v>
       </c>
       <c r="K7">
-        <v>0.4678225243015035</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4371886942627512</v>
+        <v>0.1460926614752154</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5232366263276944</v>
+      </c>
+      <c r="N7">
+        <v>1.813990072399321</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.39266508041834</v>
+        <v>3.922965519838442</v>
       </c>
       <c r="C8">
-        <v>0.3122573742473946</v>
+        <v>0.6720040570837682</v>
       </c>
       <c r="D8">
-        <v>0.01847201098922113</v>
+        <v>0.02829465105086371</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.097628335182463</v>
+        <v>3.005803373066556</v>
       </c>
       <c r="G8">
-        <v>0.4885839409645456</v>
+        <v>0.0008394125608431494</v>
       </c>
       <c r="H8">
-        <v>1.048228544646946</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2902655732564625</v>
+        <v>0.06396476216270397</v>
       </c>
       <c r="K8">
-        <v>0.5725054090660606</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5376748712875354</v>
+        <v>0.160823848943366</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6116320100506272</v>
+      </c>
+      <c r="N8">
+        <v>1.763102576275728</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282156732967906</v>
+        <v>5.180027258931943</v>
       </c>
       <c r="C9">
-        <v>0.4175418415292143</v>
+        <v>0.9262234483670113</v>
       </c>
       <c r="D9">
-        <v>0.02015679623403344</v>
+        <v>0.04009702070035104</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.713795669876788</v>
+        <v>3.53033276319124</v>
       </c>
       <c r="G9">
-        <v>0.6393628276031791</v>
+        <v>0.0008155789650805414</v>
       </c>
       <c r="H9">
-        <v>1.328292286114745</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4000011505267267</v>
+        <v>0.06364220507654217</v>
       </c>
       <c r="K9">
-        <v>0.784706439995027</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7446835417213151</v>
+        <v>0.1918427324921268</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7947836934061669</v>
+      </c>
+      <c r="N9">
+        <v>1.682054517958647</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.964522696566348</v>
+        <v>6.158496649496954</v>
       </c>
       <c r="C10">
-        <v>0.4974863281512398</v>
+        <v>1.122905044372942</v>
       </c>
       <c r="D10">
-        <v>0.02130324944040041</v>
+        <v>0.04967892569461441</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.205175942952536</v>
+        <v>3.959261481325569</v>
       </c>
       <c r="G10">
-        <v>0.7596408636984933</v>
+        <v>0.0007986094102821481</v>
       </c>
       <c r="H10">
-        <v>1.553249522796989</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4867206809861173</v>
+        <v>0.06346431157152033</v>
       </c>
       <c r="K10">
-        <v>0.947138322148902</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.9059600155491125</v>
+        <v>0.216302696097884</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.937584417383853</v>
+      </c>
+      <c r="N10">
+        <v>1.636163771896776</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.283817502741215</v>
+        <v>6.619650349503218</v>
       </c>
       <c r="C11">
-        <v>0.5347027829018032</v>
+        <v>1.215398606413828</v>
       </c>
       <c r="D11">
-        <v>0.02180251184532267</v>
+        <v>0.054317457210459</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.43998869268512</v>
+        <v>4.166580586449214</v>
       </c>
       <c r="G11">
-        <v>0.817140593157319</v>
+        <v>0.0007909649013429494</v>
       </c>
       <c r="H11">
-        <v>1.661148322333318</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5280219787245528</v>
+        <v>0.06339913499510086</v>
       </c>
       <c r="K11">
-        <v>1.023060509225104</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.982156144948334</v>
+        <v>0.2278896001397754</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.004928541594239</v>
+      </c>
+      <c r="N11">
+        <v>1.618840109807067</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.406259096678355</v>
+        <v>6.796984578066258</v>
       </c>
       <c r="C12">
-        <v>0.5489459191941819</v>
+        <v>1.250943268118249</v>
       </c>
       <c r="D12">
-        <v>0.02198813511201436</v>
+        <v>0.05612233850154524</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.530810790945651</v>
+        <v>4.247108251340563</v>
       </c>
       <c r="G12">
-        <v>0.8393854098667362</v>
+        <v>0.0007880768328769605</v>
       </c>
       <c r="H12">
-        <v>1.702943927257934</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5439805434285958</v>
+        <v>0.06337702541954204</v>
       </c>
       <c r="K12">
-        <v>1.05216231102186</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.011499462699561</v>
+        <v>0.2323527848926261</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.030830402132445</v>
+      </c>
+      <c r="N12">
+        <v>1.612849112356926</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.379816524914759</v>
+        <v>6.758665182850052</v>
       </c>
       <c r="C13">
-        <v>0.5458712381645228</v>
+        <v>1.243263501381989</v>
       </c>
       <c r="D13">
-        <v>0.02194831469732961</v>
+        <v>0.05573132944601866</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.511161021710166</v>
+        <v>4.229670651285801</v>
       </c>
       <c r="G13">
-        <v>0.8345724081355286</v>
+        <v>0.0007886986010057227</v>
       </c>
       <c r="H13">
-        <v>1.693898439492429</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5405284827061578</v>
+        <v>0.06338166719695781</v>
       </c>
       <c r="K13">
-        <v>1.045878026099231</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.005156626318467</v>
+        <v>0.231388038393419</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.025233174148504</v>
+      </c>
+      <c r="N13">
+        <v>1.614113046966651</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.293858556664077</v>
+        <v>6.634183033183945</v>
       </c>
       <c r="C14">
-        <v>0.5358713909060953</v>
+        <v>1.218311946714778</v>
       </c>
       <c r="D14">
-        <v>0.02181785349991472</v>
+        <v>0.05446492498265343</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.447420765871925</v>
+        <v>4.173163486765787</v>
       </c>
       <c r="G14">
-        <v>0.8189608076477128</v>
+        <v>0.0007907271882518285</v>
       </c>
       <c r="H14">
-        <v>1.66456724358585</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5293281826916143</v>
+        <v>0.06339726251488642</v>
       </c>
       <c r="K14">
-        <v>1.025447308720743</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9845599070508939</v>
+        <v>0.2282552181655149</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.007051125968999</v>
+      </c>
+      <c r="N14">
+        <v>1.618335455971106</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.241414478956187</v>
+        <v>6.558299254679923</v>
       </c>
       <c r="C15">
-        <v>0.5297666433463064</v>
+        <v>1.203098770018755</v>
       </c>
       <c r="D15">
-        <v>0.02173748727383185</v>
+        <v>0.05369577962801486</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.408635001115556</v>
+        <v>4.138822912223702</v>
       </c>
       <c r="G15">
-        <v>0.809461853118691</v>
+        <v>0.0007919705045002654</v>
       </c>
       <c r="H15">
-        <v>1.646727425110043</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5225108728860732</v>
+        <v>0.06340716011907954</v>
       </c>
       <c r="K15">
-        <v>1.012980633897527</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9720102428758679</v>
+        <v>0.2263464041494387</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9959680470628882</v>
+      </c>
+      <c r="N15">
+        <v>1.620997796100227</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.943855655476284</v>
+        <v>6.128714756653778</v>
       </c>
       <c r="C16">
-        <v>0.4950735275720888</v>
+        <v>1.116928147870794</v>
       </c>
       <c r="D16">
-        <v>0.0212701539571718</v>
+        <v>0.04938208196136884</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.190080496023882</v>
+        <v>3.945980039874655</v>
       </c>
       <c r="G16">
-        <v>0.7559449443293147</v>
+        <v>0.0007991101734822816</v>
       </c>
       <c r="H16">
-        <v>1.546321265864108</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4840630979633573</v>
+        <v>0.06346891278171984</v>
       </c>
       <c r="K16">
-        <v>0.9422223968320793</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.9010441331579813</v>
+        <v>0.2155554886350757</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.93323599930401</v>
+      </c>
+      <c r="N16">
+        <v>1.637372182789264</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.763757403283421</v>
+        <v>5.869553473146709</v>
       </c>
       <c r="C17">
-        <v>0.4740265246171589</v>
+        <v>1.064895761026264</v>
       </c>
       <c r="D17">
-        <v>0.02097759843771385</v>
+        <v>0.04681280086477102</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.05908122746726</v>
+        <v>3.830979004919584</v>
       </c>
       <c r="G17">
-        <v>0.7238742158971263</v>
+        <v>0.0008035066396690156</v>
       </c>
       <c r="H17">
-        <v>1.486241473222833</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4609856856903107</v>
+        <v>0.06351102954082055</v>
       </c>
       <c r="K17">
-        <v>0.8993744306310418</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8582884004817402</v>
+        <v>0.2090596582734108</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8954006662663048</v>
+      </c>
+      <c r="N17">
+        <v>1.648365995646088</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.660988502842599</v>
+        <v>5.721973845134016</v>
       </c>
       <c r="C18">
-        <v>0.4619988815216516</v>
+        <v>1.035246805891859</v>
       </c>
       <c r="D18">
-        <v>0.02080724801192702</v>
+        <v>0.04536078414655975</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.984776670574519</v>
+        <v>3.765963475624915</v>
       </c>
       <c r="G18">
-        <v>0.7056852993152631</v>
+        <v>0.0008060427057966228</v>
       </c>
       <c r="H18">
-        <v>1.452199666860921</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4478829198273075</v>
+        <v>0.06353671471942501</v>
       </c>
       <c r="K18">
-        <v>0.8749165369033705</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8339572304368943</v>
+        <v>0.2053660907205455</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8738592353458046</v>
+      </c>
+      <c r="N18">
+        <v>1.655019746470387</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.626326215014558</v>
+        <v>5.672249415850331</v>
       </c>
       <c r="C19">
-        <v>0.4579391477530521</v>
+        <v>1.025253663224021</v>
       </c>
       <c r="D19">
-        <v>0.02074921974233135</v>
+        <v>0.04487335391340252</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.959789611067151</v>
+        <v>3.74413691125244</v>
       </c>
       <c r="G19">
-        <v>0.6995690583628544</v>
+        <v>0.0008069027482253434</v>
       </c>
       <c r="H19">
-        <v>1.440758226644832</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4434744138372224</v>
+        <v>0.06354565376360455</v>
       </c>
       <c r="K19">
-        <v>0.8666659777195775</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8257616014839613</v>
+        <v>0.2041225757533596</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8666019222455219</v>
+      </c>
+      <c r="N19">
+        <v>1.657327699908564</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.782842700088793</v>
+        <v>5.896985435838417</v>
       </c>
       <c r="C20">
-        <v>0.476258748661138</v>
+        <v>1.070405279020633</v>
       </c>
       <c r="D20">
-        <v>0.02100895838584549</v>
+        <v>0.04708358363328102</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.072916495764247</v>
+        <v>3.843102299640378</v>
       </c>
       <c r="G20">
-        <v>0.7272610907581054</v>
+        <v>0.0008030378966940008</v>
       </c>
       <c r="H20">
-        <v>1.492582896272893</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4634242909267243</v>
+        <v>0.06350639292636462</v>
       </c>
       <c r="K20">
-        <v>0.9039158994165177</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8628122737158179</v>
+        <v>0.209746671604826</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8994050964278415</v>
+      </c>
+      <c r="N20">
+        <v>1.647161095308121</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.319062709923628</v>
+        <v>6.670669569373047</v>
       </c>
       <c r="C21">
-        <v>0.5388042709919887</v>
+        <v>1.225625987997319</v>
       </c>
       <c r="D21">
-        <v>0.02185626839142429</v>
+        <v>0.05483551426637234</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.46608870539626</v>
+        <v>4.189703857412582</v>
       </c>
       <c r="G21">
-        <v>0.823532917366137</v>
+        <v>0.0007901311952209011</v>
       </c>
       <c r="H21">
-        <v>1.673155914556474</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5326088742561339</v>
+        <v>0.06339260925312828</v>
       </c>
       <c r="K21">
-        <v>1.031438239250065</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9905956542275192</v>
+        <v>0.2291732739926005</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.012380276515643</v>
+      </c>
+      <c r="N21">
+        <v>1.61707927857762</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.67858815138112</v>
+        <v>7.192314969875099</v>
       </c>
       <c r="C22">
-        <v>0.5805724247334183</v>
+        <v>1.330148059273824</v>
       </c>
       <c r="D22">
-        <v>0.02238987357382882</v>
+        <v>0.06018859268396426</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.734308265764724</v>
+        <v>4.428158107587677</v>
       </c>
       <c r="G22">
-        <v>0.8892378649711929</v>
+        <v>0.0007817328926421645</v>
       </c>
       <c r="H22">
-        <v>1.796709614791951</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5797132196349253</v>
+        <v>0.06333342276559861</v>
       </c>
       <c r="K22">
-        <v>1.116866170364631</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.077011109282722</v>
+        <v>0.2423149510969154</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.088581184003012</v>
+      </c>
+      <c r="N22">
+        <v>1.600769944985103</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.485777814629387</v>
+        <v>6.91229166821222</v>
       </c>
       <c r="C23">
-        <v>0.5581880226491478</v>
+        <v>1.274049661838092</v>
       </c>
       <c r="D23">
-        <v>0.02210700821582634</v>
+        <v>0.05730225863472072</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.590019682931171</v>
+        <v>4.299700268366706</v>
       </c>
       <c r="G23">
-        <v>0.8538887986261727</v>
+        <v>0.0007862133370172925</v>
       </c>
       <c r="H23">
-        <v>1.730209140476234</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.554380350411499</v>
+        <v>0.06336350472318752</v>
       </c>
       <c r="K23">
-        <v>1.071058735868618</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.030593175979703</v>
+        <v>0.2352568039809313</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.047673687151104</v>
+      </c>
+      <c r="N23">
+        <v>1.609146292473611</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.774211851534517</v>
+        <v>5.884579065415437</v>
       </c>
       <c r="C24">
-        <v>0.4752493362163364</v>
+        <v>1.067913606261527</v>
       </c>
       <c r="D24">
-        <v>0.02099478725235215</v>
+        <v>0.04696108516934316</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.066658449889587</v>
+        <v>3.837617951166692</v>
       </c>
       <c r="G24">
-        <v>0.7257291143233147</v>
+        <v>0.0008032497886908815</v>
       </c>
       <c r="H24">
-        <v>1.489714395095163</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4623212881877592</v>
+        <v>0.06350848457801472</v>
       </c>
       <c r="K24">
-        <v>0.9018621576465762</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8607662590046203</v>
+        <v>0.2094359459472699</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8975940417865118</v>
+      </c>
+      <c r="N24">
+        <v>1.647704797015422</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.037248097212455</v>
+        <v>4.831565591545882</v>
       </c>
       <c r="C25">
-        <v>0.3886905587381193</v>
+        <v>0.8559738162044255</v>
       </c>
       <c r="D25">
-        <v>0.01971628767702782</v>
+        <v>0.03676883175781853</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.541185546589588</v>
+        <v>3.381616024580978</v>
       </c>
       <c r="G25">
-        <v>0.5971231662135068</v>
+        <v>0.000821918706628902</v>
       </c>
       <c r="H25">
-        <v>1.249579742738703</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3694027147640355</v>
+        <v>0.06371994281542204</v>
       </c>
       <c r="K25">
-        <v>0.7263391751581167</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6873198673735175</v>
+        <v>0.1831875119519069</v>
       </c>
       <c r="M25">
+        <v>0.7439696391186459</v>
+      </c>
+      <c r="N25">
+        <v>1.701760790823016</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.091597877811978</v>
+        <v>1.891934624691572</v>
       </c>
       <c r="C2">
-        <v>0.7062560834046678</v>
+        <v>0.4146929198479654</v>
       </c>
       <c r="D2">
-        <v>0.02984540745590891</v>
+        <v>0.06429030125003266</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.074101711948558</v>
+        <v>0.2972414987154508</v>
       </c>
       <c r="G2">
-        <v>0.0008360435607812571</v>
+        <v>0.1952248594450339</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1587702340583945</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06391423049913492</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1649472048344407</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6361719899852645</v>
+        <v>2.791122642280584</v>
       </c>
       <c r="N2">
-        <v>1.7505098755137</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.6978908143533715</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.607017861247016</v>
+        <v>1.660930568639316</v>
       </c>
       <c r="C3">
-        <v>0.6076588084478374</v>
+        <v>0.3777951820855492</v>
       </c>
       <c r="D3">
-        <v>0.0254157090056637</v>
+        <v>0.05633472265940753</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.879884280436002</v>
+        <v>0.2711325556950328</v>
       </c>
       <c r="G3">
-        <v>0.0008459060121768857</v>
+        <v>0.1771478360046075</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.156401440542453</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06406660643631579</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1531408698692402</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5656878531753406</v>
+        <v>2.376324672684703</v>
       </c>
       <c r="N3">
-        <v>1.788397744342632</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.6542396660331207</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.316352307106399</v>
+        <v>1.518596931658749</v>
       </c>
       <c r="C4">
-        <v>0.5482272574757019</v>
+        <v>0.3550597315072537</v>
       </c>
       <c r="D4">
-        <v>0.02279721854290528</v>
+        <v>0.05143457667677609</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.766655142824263</v>
+        <v>0.255959439026455</v>
       </c>
       <c r="G4">
-        <v>0.0008521199654638084</v>
+        <v>0.1668369422024796</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1554329133341739</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06416947759429537</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1461306593293656</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5234663922160223</v>
+        <v>2.130455021934139</v>
       </c>
       <c r="N4">
-        <v>1.813845264172045</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6301181042220918</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.19943502542219</v>
+        <v>1.460469454473838</v>
       </c>
       <c r="C5">
-        <v>0.524246083828416</v>
+        <v>0.3457770733972154</v>
       </c>
       <c r="D5">
-        <v>0.02175193090624106</v>
+        <v>0.04943379168572903</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.721896661839594</v>
+        <v>0.2499759755537454</v>
       </c>
       <c r="G5">
-        <v>0.0008546940853457937</v>
+        <v>0.1628175528600764</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1551537379115828</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06421362347259496</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1433293560369364</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5064980609272425</v>
+        <v>2.032098709854012</v>
       </c>
       <c r="N5">
-        <v>1.824736516772361</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6209146826068235</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.180108085881898</v>
+        <v>1.450809833911734</v>
       </c>
       <c r="C6">
-        <v>0.5202772584370337</v>
+        <v>0.3442346841791419</v>
       </c>
       <c r="D6">
-        <v>0.02157957456613246</v>
+        <v>0.04910132300118875</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.714544492795213</v>
+        <v>0.2489940402343009</v>
       </c>
       <c r="G6">
-        <v>0.0008551241028124393</v>
+        <v>0.1621607090163337</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1551141705328476</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06422108512081959</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1428674198805382</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5036940315833505</v>
+        <v>2.015867620678037</v>
       </c>
       <c r="N6">
-        <v>1.826575706520217</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6194229579818966</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.314769565951508</v>
+        <v>1.517813512898613</v>
       </c>
       <c r="C7">
-        <v>0.5479029279782992</v>
+        <v>0.3549346114382956</v>
       </c>
       <c r="D7">
-        <v>0.02278303794056313</v>
+        <v>0.0514076094230802</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.766046077783741</v>
+        <v>0.2558779557127338</v>
       </c>
       <c r="G7">
-        <v>0.0008521545088141555</v>
+        <v>0.166782017008039</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1554286890940801</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06417006409519299</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1460926614752154</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5232366263276944</v>
+        <v>2.129121576577205</v>
       </c>
       <c r="N7">
-        <v>1.813990072399321</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.629991508340197</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.922965519838442</v>
+        <v>1.812387176647178</v>
       </c>
       <c r="C8">
-        <v>0.6720040570837682</v>
+        <v>0.4019887306600083</v>
       </c>
       <c r="D8">
-        <v>0.02829465105086371</v>
+        <v>0.06155037440733224</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.005803373066556</v>
+        <v>0.2880510769473972</v>
       </c>
       <c r="G8">
-        <v>0.0008394125608431494</v>
+        <v>0.1888183170290105</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1578484526337007</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06396476216270397</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.160823848943366</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6116320100506272</v>
+        <v>2.646023166316908</v>
       </c>
       <c r="N8">
-        <v>1.763102576275728</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.6822537574814191</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.180027258931943</v>
+        <v>2.386117414717717</v>
       </c>
       <c r="C9">
-        <v>0.9262234483670113</v>
+        <v>0.493499834224906</v>
       </c>
       <c r="D9">
-        <v>0.04009702070035104</v>
+        <v>0.08132092395818802</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.53033276319124</v>
+        <v>0.3587389921399193</v>
       </c>
       <c r="G9">
-        <v>0.0008155789650805414</v>
+        <v>0.2390732508731759</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1667769983184684</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06364220507654217</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1918427324921268</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7947836934061669</v>
+        <v>3.750410944160507</v>
       </c>
       <c r="N9">
-        <v>1.682054517958647</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.8083618085763646</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.158496649496954</v>
+        <v>2.805170197295524</v>
       </c>
       <c r="C10">
-        <v>1.122905044372942</v>
+        <v>0.5600417600836352</v>
       </c>
       <c r="D10">
-        <v>0.04967892569461441</v>
+        <v>0.09577533214142164</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.959261481325569</v>
+        <v>0.4165278321274002</v>
       </c>
       <c r="G10">
-        <v>0.0007986094102821481</v>
+        <v>0.2815118058497745</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1763919800440163</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06346431157152033</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.216302696097884</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.937584417383853</v>
+        <v>4.653834202943045</v>
       </c>
       <c r="N10">
-        <v>1.636163771896776</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.9190680561957834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.619650349503218</v>
+        <v>2.99519742516793</v>
       </c>
       <c r="C11">
-        <v>1.215398606413828</v>
+        <v>0.5900878037431028</v>
       </c>
       <c r="D11">
-        <v>0.054317457210459</v>
+        <v>0.1023344041131651</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.166580586449214</v>
+        <v>0.4444044144112524</v>
       </c>
       <c r="G11">
-        <v>0.0007909649013429494</v>
+        <v>0.3023347589902272</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.181558842251917</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06339913499510086</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2278896001397754</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.004928541594239</v>
+        <v>5.096183332531879</v>
       </c>
       <c r="N11">
-        <v>1.618840109807067</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.9742992008570184</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.796984578066258</v>
+        <v>3.067054665578269</v>
       </c>
       <c r="C12">
-        <v>1.250943268118249</v>
+        <v>0.6014237992216351</v>
       </c>
       <c r="D12">
-        <v>0.05612233850154524</v>
+        <v>0.1048154789423137</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.247108251340563</v>
+        <v>0.4552198569886272</v>
       </c>
       <c r="G12">
-        <v>0.0007880768328769605</v>
+        <v>0.3104696456511959</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1836420251493109</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06337702541954204</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2323527848926261</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.030830402132445</v>
+        <v>5.269511483611183</v>
       </c>
       <c r="N12">
-        <v>1.612849112356926</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.9960075645618929</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.758665182850052</v>
+        <v>3.051583794056228</v>
       </c>
       <c r="C13">
-        <v>1.243263501381989</v>
+        <v>0.5989844366163481</v>
       </c>
       <c r="D13">
-        <v>0.05573132944601866</v>
+        <v>0.1042812634797485</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.229670651285801</v>
+        <v>0.4528784858226942</v>
       </c>
       <c r="G13">
-        <v>0.0007886986010057227</v>
+        <v>0.3087059879024991</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1831875226098845</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06338166719695781</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.231388038393419</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.025233174148504</v>
+        <v>5.231898117815049</v>
       </c>
       <c r="N13">
-        <v>1.614113046966651</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.9912953365931401</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.634183033183945</v>
+        <v>3.001111324919748</v>
       </c>
       <c r="C14">
-        <v>1.218311946714778</v>
+        <v>0.5910213269952749</v>
       </c>
       <c r="D14">
-        <v>0.05446492498265343</v>
+        <v>0.1025385806680958</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.173163486765787</v>
+        <v>0.4452888186002042</v>
       </c>
       <c r="G14">
-        <v>0.0007907271882518285</v>
+        <v>0.3029988174395442</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1817276107256447</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06339726251488642</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2282552181655149</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.007051125968999</v>
+        <v>5.110317574714969</v>
       </c>
       <c r="N14">
-        <v>1.618335455971106</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.9760686686777831</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.558299254679923</v>
+        <v>2.970181605880157</v>
       </c>
       <c r="C15">
-        <v>1.203098770018755</v>
+        <v>0.586137910957234</v>
       </c>
       <c r="D15">
-        <v>0.05369577962801486</v>
+        <v>0.1014707706581532</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.138822912223702</v>
+        <v>0.440674680722168</v>
       </c>
       <c r="G15">
-        <v>0.0007919705045002654</v>
+        <v>0.2995365522411504</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1808502659083899</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06340716011907954</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2263464041494387</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9959680470628882</v>
+        <v>5.03664950707585</v>
       </c>
       <c r="N15">
-        <v>1.620997796100227</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.9668482619452163</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.128714756653778</v>
+        <v>2.792738220481567</v>
       </c>
       <c r="C16">
-        <v>1.116928147870794</v>
+        <v>0.5580729232446799</v>
       </c>
       <c r="D16">
-        <v>0.04938208196136884</v>
+        <v>0.09534632731514137</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.945980039874655</v>
+        <v>0.4147405153170496</v>
       </c>
       <c r="G16">
-        <v>0.0007991101734822816</v>
+        <v>0.2801840865292604</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1760713033009296</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06346891278171984</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2155554886350757</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.93323599930401</v>
+        <v>4.625660310746824</v>
       </c>
       <c r="N16">
-        <v>1.637372182789264</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.9155642055107194</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.869553473146709</v>
+        <v>2.683719671642848</v>
       </c>
       <c r="C17">
-        <v>1.064895761026264</v>
+        <v>0.5407926797777804</v>
       </c>
       <c r="D17">
-        <v>0.04681280086477102</v>
+        <v>0.09158481032553567</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.830979004919584</v>
+        <v>0.3992579801868814</v>
       </c>
       <c r="G17">
-        <v>0.0008035066396690156</v>
+        <v>0.2687214695915827</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1733510491184234</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06351102954082055</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2090596582734108</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8954006662663048</v>
+        <v>4.382385377119064</v>
       </c>
       <c r="N17">
-        <v>1.648365995646088</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.8854123191451606</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.721973845134016</v>
+        <v>2.620959711503815</v>
       </c>
       <c r="C18">
-        <v>1.035246805891859</v>
+        <v>0.5308331576781598</v>
       </c>
       <c r="D18">
-        <v>0.04536078414655975</v>
+        <v>0.08941978122055616</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.765963475624915</v>
+        <v>0.3905002304173379</v>
       </c>
       <c r="G18">
-        <v>0.0008060427057966228</v>
+        <v>0.2622691580386416</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1718602196972654</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06353671471942501</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2053660907205455</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8738592353458046</v>
+        <v>4.245316846738888</v>
       </c>
       <c r="N18">
-        <v>1.655019746470387</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.8685218349779689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.672249415850331</v>
+        <v>2.599701102802157</v>
       </c>
       <c r="C19">
-        <v>1.025253663224021</v>
+        <v>0.5274577758150087</v>
       </c>
       <c r="D19">
-        <v>0.04487335391340252</v>
+        <v>0.0886864888693637</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.74413691125244</v>
+        <v>0.387559458771392</v>
       </c>
       <c r="G19">
-        <v>0.0008069027482253434</v>
+        <v>0.2601078005188597</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1713677697102085</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06354565376360455</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2041225757533596</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8666019222455219</v>
+        <v>4.199364520916149</v>
       </c>
       <c r="N19">
-        <v>1.657327699908564</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.8628780473153768</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.896985435838417</v>
+        <v>2.695330699843055</v>
       </c>
       <c r="C20">
-        <v>1.070405279020633</v>
+        <v>0.5426343600426549</v>
       </c>
       <c r="D20">
-        <v>0.04708358363328102</v>
+        <v>0.09198538781704002</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.843102299640378</v>
+        <v>0.4008906595970601</v>
       </c>
       <c r="G20">
-        <v>0.0008030378966940008</v>
+        <v>0.269926912843502</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1736329026788042</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06350639292636462</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.209746671604826</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8994050964278415</v>
+        <v>4.407978463811602</v>
       </c>
       <c r="N20">
-        <v>1.647161095308121</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.8885746217786163</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.670669569373047</v>
+        <v>3.015939243894536</v>
       </c>
       <c r="C21">
-        <v>1.225625987997319</v>
+        <v>0.5933615121192588</v>
       </c>
       <c r="D21">
-        <v>0.05483551426637234</v>
+        <v>0.1030505261981034</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.189703857412582</v>
+        <v>0.4475107832006557</v>
       </c>
       <c r="G21">
-        <v>0.0007901311952209011</v>
+        <v>0.3046680977180785</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1821528764347278</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06339260925312828</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2291732739926005</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.012380276515643</v>
+        <v>5.145858348374333</v>
       </c>
       <c r="N21">
-        <v>1.61707927857762</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.9805187545644287</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.192314969875099</v>
+        <v>3.224867193691637</v>
       </c>
       <c r="C22">
-        <v>1.330148059273824</v>
+        <v>0.6262639279157156</v>
       </c>
       <c r="D22">
-        <v>0.06018859268396426</v>
+        <v>0.1102661251184003</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.428158107587677</v>
+        <v>0.4795086815772791</v>
       </c>
       <c r="G22">
-        <v>0.0007817328926421645</v>
+        <v>0.3288476686947632</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1884664553146962</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06333342276559861</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2423149510969154</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.088581184003012</v>
+        <v>5.6629607300369</v>
       </c>
       <c r="N22">
-        <v>1.600769944985103</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.045290217086233</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.91229166821222</v>
+        <v>3.113421560451229</v>
       </c>
       <c r="C23">
-        <v>1.274049661838092</v>
+        <v>0.6087303281565539</v>
       </c>
       <c r="D23">
-        <v>0.05730225863472072</v>
+        <v>0.1064166809099447</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.299700268366706</v>
+        <v>0.4622793363447002</v>
       </c>
       <c r="G23">
-        <v>0.0007862133370172925</v>
+        <v>0.3157957938825717</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1850238994876037</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06336350472318752</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2352568039809313</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.047673687151104</v>
+        <v>5.383238536917162</v>
       </c>
       <c r="N23">
-        <v>1.609146292473611</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.01025711681902</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.884579065415437</v>
+        <v>2.690081613802533</v>
       </c>
       <c r="C24">
-        <v>1.067913606261527</v>
+        <v>0.5418018132180862</v>
       </c>
       <c r="D24">
-        <v>0.04696108516934316</v>
+        <v>0.09180429444315763</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.837617951166692</v>
+        <v>0.4001520809432577</v>
       </c>
       <c r="G24">
-        <v>0.0008032497886908815</v>
+        <v>0.269381505350907</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1735052499780068</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06350848457801472</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2094359459472699</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8975940417865118</v>
+        <v>4.39639922127482</v>
       </c>
       <c r="N24">
-        <v>1.647704797015422</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.8871435678899502</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.831565591545882</v>
+        <v>2.231328133440798</v>
       </c>
       <c r="C25">
-        <v>0.8559738162044255</v>
+        <v>0.4688449036517</v>
       </c>
       <c r="D25">
-        <v>0.03676883175781853</v>
+        <v>0.07598485161702939</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.381616024580978</v>
+        <v>0.3386845089945112</v>
       </c>
       <c r="G25">
-        <v>0.000821918706628902</v>
+        <v>0.2246062498718615</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1638648159163978</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06371994281542204</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1831875119519069</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7439696391186459</v>
+        <v>3.438634572192939</v>
       </c>
       <c r="N25">
-        <v>1.701760790823016</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.7713648066497143</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.891934624691572</v>
+        <v>0.6122786519329679</v>
       </c>
       <c r="C2">
-        <v>0.4146929198479654</v>
+        <v>0.1885470363573631</v>
       </c>
       <c r="D2">
-        <v>0.06429030125003266</v>
+        <v>0.02063120273205499</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2972414987154508</v>
+        <v>0.3281835288709161</v>
       </c>
       <c r="G2">
-        <v>0.1952248594450339</v>
+        <v>0.1861946332632058</v>
       </c>
       <c r="H2">
-        <v>0.1587702340583945</v>
+        <v>0.3542096346093899</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.791122642280584</v>
+        <v>0.8951897497989307</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6978908143533715</v>
+        <v>0.9865177010593413</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.660930568639316</v>
+        <v>0.5345322749281252</v>
       </c>
       <c r="C3">
-        <v>0.3777951820855492</v>
+        <v>0.1751280124174173</v>
       </c>
       <c r="D3">
-        <v>0.05633472265940753</v>
+        <v>0.01800633603514257</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2711325556950328</v>
+        <v>0.3256611612239553</v>
       </c>
       <c r="G3">
-        <v>0.1771478360046075</v>
+        <v>0.1847294019306247</v>
       </c>
       <c r="H3">
-        <v>0.156401440542453</v>
+        <v>0.3573161180555786</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.376324672684703</v>
+        <v>0.796492303671414</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6542396660331207</v>
+        <v>0.9896594350591812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.518596931658749</v>
+        <v>0.48657823175364</v>
       </c>
       <c r="C4">
-        <v>0.3550597315072537</v>
+        <v>0.1668668200906325</v>
       </c>
       <c r="D4">
-        <v>0.05143457667677609</v>
+        <v>0.01638785620799155</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.255959439026455</v>
+        <v>0.3244310490701565</v>
       </c>
       <c r="G4">
-        <v>0.1668369422024796</v>
+        <v>0.1840714663983221</v>
       </c>
       <c r="H4">
-        <v>0.1554329133341739</v>
+        <v>0.3594608070543899</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.130455021934139</v>
+        <v>0.7364158086837307</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6301181042220918</v>
+        <v>0.9925888887174636</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.460469454473838</v>
+        <v>0.4669837857179004</v>
       </c>
       <c r="C5">
-        <v>0.3457770733972154</v>
+        <v>0.1634952817321675</v>
       </c>
       <c r="D5">
-        <v>0.04943379168572903</v>
+        <v>0.0157266590688323</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2499759755537454</v>
+        <v>0.3240096576535052</v>
       </c>
       <c r="G5">
-        <v>0.1628175528600764</v>
+        <v>0.1838638036605857</v>
       </c>
       <c r="H5">
-        <v>0.1551537379115828</v>
+        <v>0.360394384645609</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.032098709854012</v>
+        <v>0.7120598214077205</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6209146826068235</v>
+        <v>0.9940333706022102</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.450809833911734</v>
+        <v>0.4637270108456732</v>
       </c>
       <c r="C6">
-        <v>0.3442346841791419</v>
+        <v>0.1629351498364713</v>
       </c>
       <c r="D6">
-        <v>0.04910132300118875</v>
+        <v>0.01561676959285307</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2489940402343009</v>
+        <v>0.3239445042005897</v>
       </c>
       <c r="G6">
-        <v>0.1621607090163337</v>
+        <v>0.1838329628014961</v>
       </c>
       <c r="H6">
-        <v>0.1551141705328476</v>
+        <v>0.360553002085453</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.015867620678037</v>
+        <v>0.7080229417154982</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6194229579818966</v>
+        <v>0.9942883425900249</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.517813512898613</v>
+        <v>0.4863141854037565</v>
       </c>
       <c r="C7">
-        <v>0.3549346114382956</v>
+        <v>0.1668213701223351</v>
       </c>
       <c r="D7">
-        <v>0.0514076094230802</v>
+        <v>0.01637894569185505</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2558779557127338</v>
+        <v>0.3244250428805131</v>
       </c>
       <c r="G7">
-        <v>0.166782017008039</v>
+        <v>0.1840684214619372</v>
       </c>
       <c r="H7">
-        <v>0.1554286890940801</v>
+        <v>0.3594731563881126</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.129121576577205</v>
+        <v>0.7360868344652971</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.629991508340197</v>
+        <v>0.9926073555503336</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.812387176647178</v>
+        <v>0.5855179442698102</v>
       </c>
       <c r="C8">
-        <v>0.4019887306600083</v>
+        <v>0.1839249646226051</v>
       </c>
       <c r="D8">
-        <v>0.06155037440733224</v>
+        <v>0.01972759344632635</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2880510769473972</v>
+        <v>0.3272475424687826</v>
       </c>
       <c r="G8">
-        <v>0.1888183170290105</v>
+        <v>0.1856390515843813</v>
       </c>
       <c r="H8">
-        <v>0.1578484526337007</v>
+        <v>0.3552314568356962</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.646023166316908</v>
+        <v>0.8610463363554146</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6822537574814191</v>
+        <v>0.9873928167925357</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.386117414717717</v>
+        <v>0.7782568001201753</v>
       </c>
       <c r="C9">
-        <v>0.493499834224906</v>
+        <v>0.2172730665704989</v>
       </c>
       <c r="D9">
-        <v>0.08132092395818802</v>
+        <v>0.02623813023038224</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3587389921399193</v>
+        <v>0.3353220329595743</v>
       </c>
       <c r="G9">
-        <v>0.2390732508731759</v>
+        <v>0.1906524392664082</v>
       </c>
       <c r="H9">
-        <v>0.1667769983184684</v>
+        <v>0.3487996483136939</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.750410944160507</v>
+        <v>1.110542873411021</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8083618085763646</v>
+        <v>0.9851449114098614</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.805170197295524</v>
+        <v>0.9186792045018137</v>
       </c>
       <c r="C10">
-        <v>0.5600417600836352</v>
+        <v>0.2416343682971842</v>
       </c>
       <c r="D10">
-        <v>0.09577533214142164</v>
+        <v>0.03098469536905668</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4165278321274002</v>
+        <v>0.3428195408954551</v>
       </c>
       <c r="G10">
-        <v>0.2815118058497745</v>
+        <v>0.1955364465317899</v>
       </c>
       <c r="H10">
-        <v>0.1763919800440163</v>
+        <v>0.3452288411542241</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.653834202943045</v>
+        <v>1.296990622120717</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9190680561957834</v>
+        <v>0.9884139801868912</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.99519742516793</v>
+        <v>0.9822869227480169</v>
       </c>
       <c r="C11">
-        <v>0.5900878037431028</v>
+        <v>0.2526820761409851</v>
       </c>
       <c r="D11">
-        <v>0.1023344041131651</v>
+        <v>0.03313555504199428</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4444044144112524</v>
+        <v>0.346573929075717</v>
       </c>
       <c r="G11">
-        <v>0.3023347589902272</v>
+        <v>0.1980237865991796</v>
       </c>
       <c r="H11">
-        <v>0.181558842251917</v>
+        <v>0.3438561581651953</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.096183332531879</v>
+        <v>1.382589326474104</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9742992008570184</v>
+        <v>0.9909820100158129</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.067054665578269</v>
+        <v>1.006332800113682</v>
       </c>
       <c r="C12">
-        <v>0.6014237992216351</v>
+        <v>0.2568601848907974</v>
       </c>
       <c r="D12">
-        <v>0.1048154789423137</v>
+        <v>0.03394877323182754</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4552198569886272</v>
+        <v>0.3480453193643527</v>
       </c>
       <c r="G12">
-        <v>0.3104696456511959</v>
+        <v>0.1990042370663332</v>
       </c>
       <c r="H12">
-        <v>0.1836420251493109</v>
+        <v>0.3433726362889189</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.269511483611183</v>
+        <v>1.415123620169084</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9960075645618929</v>
+        <v>0.99211085549328</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.051583794056228</v>
+        <v>1.001155944654556</v>
       </c>
       <c r="C13">
-        <v>0.5989844366163481</v>
+        <v>0.2559606029435599</v>
       </c>
       <c r="D13">
-        <v>0.1042812634797485</v>
+        <v>0.03377368940766701</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4528784858226942</v>
+        <v>0.3477262153137204</v>
       </c>
       <c r="G13">
-        <v>0.3087059879024991</v>
+        <v>0.1987913593452362</v>
       </c>
       <c r="H13">
-        <v>0.1831875226098845</v>
+        <v>0.3434751562300988</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.231898117815049</v>
+        <v>1.408111324865175</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9912953365931401</v>
+        <v>0.9918607678272338</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.001111324919748</v>
+        <v>0.9842660243407977</v>
       </c>
       <c r="C14">
-        <v>0.5910213269952749</v>
+        <v>0.2530259229687886</v>
       </c>
       <c r="D14">
-        <v>0.1025385806680958</v>
+        <v>0.03320248470774345</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4452888186002042</v>
+        <v>0.3466939840143155</v>
       </c>
       <c r="G14">
-        <v>0.3029988174395442</v>
+        <v>0.1981036742225086</v>
       </c>
       <c r="H14">
-        <v>0.1817276107256447</v>
+        <v>0.3438156508407531</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.110317574714969</v>
+        <v>1.385263496046122</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9760686686777831</v>
+        <v>0.9910717410966754</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.970181605880157</v>
+        <v>0.9739150639750846</v>
       </c>
       <c r="C15">
-        <v>0.586137910957234</v>
+        <v>0.2512276270403504</v>
       </c>
       <c r="D15">
-        <v>0.1014707706581532</v>
+        <v>0.03285243869410692</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.440674680722168</v>
+        <v>0.3460681905810574</v>
       </c>
       <c r="G15">
-        <v>0.2995365522411504</v>
+        <v>0.1976874780475555</v>
       </c>
       <c r="H15">
-        <v>0.1808502659083899</v>
+        <v>0.3440289414588023</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.03664950707585</v>
+        <v>1.371284380741059</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9668482619452163</v>
+        <v>0.9906088341145676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.792738220481567</v>
+        <v>0.9145166636460544</v>
       </c>
       <c r="C16">
-        <v>0.5580729232446799</v>
+        <v>0.2409116422126658</v>
       </c>
       <c r="D16">
-        <v>0.09534632731514137</v>
+        <v>0.03084395784217975</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4147405153170496</v>
+        <v>0.3425811215495784</v>
       </c>
       <c r="G16">
-        <v>0.2801840865292604</v>
+        <v>0.1953792678380779</v>
       </c>
       <c r="H16">
-        <v>0.1760713033009296</v>
+        <v>0.3453236216514455</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.625660310746824</v>
+        <v>1.291412920954059</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9155642055107194</v>
+        <v>0.9882679857481094</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.683719671642848</v>
+        <v>0.8780068000432948</v>
       </c>
       <c r="C17">
-        <v>0.5407926797777804</v>
+        <v>0.2345739767123689</v>
       </c>
       <c r="D17">
-        <v>0.09158481032553567</v>
+        <v>0.02960963088790436</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3992579801868814</v>
+        <v>0.3405301389628974</v>
       </c>
       <c r="G17">
-        <v>0.2687214695915827</v>
+        <v>0.194031532562704</v>
       </c>
       <c r="H17">
-        <v>0.1733510491184234</v>
+        <v>0.3461823951393654</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.382385377119064</v>
+        <v>1.242620017060005</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8854123191451606</v>
+        <v>0.9871094784401748</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.620959711503815</v>
+        <v>0.8569818898522499</v>
       </c>
       <c r="C18">
-        <v>0.5308331576781598</v>
+        <v>0.2309255122476657</v>
       </c>
       <c r="D18">
-        <v>0.08941978122055616</v>
+        <v>0.02889889386725741</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3905002304173379</v>
+        <v>0.3393828066621722</v>
       </c>
       <c r="G18">
-        <v>0.2622691580386416</v>
+        <v>0.19328132720225</v>
       </c>
       <c r="H18">
-        <v>0.1718602196972654</v>
+        <v>0.3467000242996079</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.245316846738888</v>
+        <v>1.214628846955435</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8685218349779689</v>
+        <v>0.986544819505653</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.599701102802157</v>
+        <v>0.8498589146711311</v>
       </c>
       <c r="C19">
-        <v>0.5274577758150087</v>
+        <v>0.2296896686454488</v>
       </c>
       <c r="D19">
-        <v>0.0886864888693637</v>
+        <v>0.02865811759949111</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.387559458771392</v>
+        <v>0.3389998860195931</v>
       </c>
       <c r="G19">
-        <v>0.2601078005188597</v>
+        <v>0.1930315993263036</v>
       </c>
       <c r="H19">
-        <v>0.1713677697102085</v>
+        <v>0.3468793498808154</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.199364520916149</v>
+        <v>1.205163871476302</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8628780473153768</v>
+        <v>0.9863710708814892</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.695330699843055</v>
+        <v>0.8818959808860427</v>
       </c>
       <c r="C20">
-        <v>0.5426343600426549</v>
+        <v>0.2352489673844502</v>
       </c>
       <c r="D20">
-        <v>0.09198538781704002</v>
+        <v>0.02974110876637326</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4008906595970601</v>
+        <v>0.3407451207749475</v>
       </c>
       <c r="G20">
-        <v>0.269926912843502</v>
+        <v>0.1941724137301009</v>
       </c>
       <c r="H20">
-        <v>0.1736329026788042</v>
+        <v>0.3460885252395158</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.407978463811602</v>
+        <v>1.247806474436572</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8885746217786163</v>
+        <v>0.987222272717986</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.015939243894536</v>
+        <v>0.9892281315210312</v>
       </c>
       <c r="C21">
-        <v>0.5933615121192588</v>
+        <v>0.2538880604469682</v>
       </c>
       <c r="D21">
-        <v>0.1030505261981034</v>
+        <v>0.03337029621074805</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4475107832006557</v>
+        <v>0.3469958248940301</v>
       </c>
       <c r="G21">
-        <v>0.3046680977180785</v>
+        <v>0.1983046149555037</v>
       </c>
       <c r="H21">
-        <v>0.1821528764347278</v>
+        <v>0.3437146538826426</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.145858348374333</v>
+        <v>1.391971142831409</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9805187545644287</v>
+        <v>0.9912992454410414</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.224867193691637</v>
+        <v>1.059136086782303</v>
       </c>
       <c r="C22">
-        <v>0.6262639279157156</v>
+        <v>0.2660379840068003</v>
       </c>
       <c r="D22">
-        <v>0.1102661251184003</v>
+        <v>0.03573477433791084</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4795086815772791</v>
+        <v>0.3513707417286298</v>
       </c>
       <c r="G22">
-        <v>0.3288476686947632</v>
+        <v>0.2012301050471592</v>
       </c>
       <c r="H22">
-        <v>0.1884664553146962</v>
+        <v>0.3423747208106818</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.6629607300369</v>
+        <v>1.486893648217659</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.045290217086233</v>
+        <v>0.9948757756012867</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.113421560451229</v>
+        <v>1.021847494252995</v>
       </c>
       <c r="C23">
-        <v>0.6087303281565539</v>
+        <v>0.2595564073192804</v>
       </c>
       <c r="D23">
-        <v>0.1064166809099447</v>
+        <v>0.03447350564240992</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4622793363447002</v>
+        <v>0.3490091723600059</v>
       </c>
       <c r="G23">
-        <v>0.3157957938825717</v>
+        <v>0.1996480230971258</v>
       </c>
       <c r="H23">
-        <v>0.1850238994876037</v>
+        <v>0.343070483648404</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.383238536917162</v>
+        <v>1.436164948941226</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.01025711681902</v>
+        <v>0.9928831517464687</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.690081613802533</v>
+        <v>0.8801377907910819</v>
       </c>
       <c r="C24">
-        <v>0.5418018132180862</v>
+        <v>0.2349438191915283</v>
       </c>
       <c r="D24">
-        <v>0.09180429444315763</v>
+        <v>0.02968167105751007</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4001520809432577</v>
+        <v>0.3406478284519068</v>
       </c>
       <c r="G24">
-        <v>0.269381505350907</v>
+        <v>0.194108644678316</v>
       </c>
       <c r="H24">
-        <v>0.1735052499780068</v>
+        <v>0.34613088935739</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.39639922127482</v>
+        <v>1.245461489104613</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8871435678899502</v>
+        <v>0.9871709627138614</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.231328133440798</v>
+        <v>0.7263174004750113</v>
       </c>
       <c r="C25">
-        <v>0.4688449036517</v>
+        <v>0.2082744169010198</v>
       </c>
       <c r="D25">
-        <v>0.07598485161702939</v>
+        <v>0.02448312755733184</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3386845089945112</v>
+        <v>0.3328640302678352</v>
       </c>
       <c r="G25">
-        <v>0.2246062498718615</v>
+        <v>0.1890869227953544</v>
       </c>
       <c r="H25">
-        <v>0.1638648159163978</v>
+        <v>0.3503372018471893</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.438634572192939</v>
+        <v>1.042527182776013</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7713648066497143</v>
+        <v>0.9848930400205518</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6122786519329679</v>
+        <v>1.891934624691714</v>
       </c>
       <c r="C2">
-        <v>0.1885470363573631</v>
+        <v>0.4146929198476528</v>
       </c>
       <c r="D2">
-        <v>0.02063120273205499</v>
+        <v>0.06429030125000423</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3281835288709161</v>
+        <v>0.2972414987154508</v>
       </c>
       <c r="G2">
-        <v>0.1861946332632058</v>
+        <v>0.1952248594450197</v>
       </c>
       <c r="H2">
-        <v>0.3542096346093899</v>
+        <v>0.1587702340585153</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8951897497989307</v>
+        <v>2.791122642280627</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9865177010593413</v>
+        <v>0.6978908143533715</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5345322749281252</v>
+        <v>1.66093056863923</v>
       </c>
       <c r="C3">
-        <v>0.1751280124174173</v>
+        <v>0.3777951820858334</v>
       </c>
       <c r="D3">
-        <v>0.01800633603514257</v>
+        <v>0.05633472265930095</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3256611612239553</v>
+        <v>0.271132555695047</v>
       </c>
       <c r="G3">
-        <v>0.1847294019306247</v>
+        <v>0.1771478360045577</v>
       </c>
       <c r="H3">
-        <v>0.3573161180555786</v>
+        <v>0.1564014405424388</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.796492303671414</v>
+        <v>2.376324672684731</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9896594350591812</v>
+        <v>0.6542396660330922</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.48657823175364</v>
+        <v>1.518596931658664</v>
       </c>
       <c r="C4">
-        <v>0.1668668200906325</v>
+        <v>0.3550597315072253</v>
       </c>
       <c r="D4">
-        <v>0.01638785620799155</v>
+        <v>0.05143457667666951</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3244310490701565</v>
+        <v>0.2559594390264408</v>
       </c>
       <c r="G4">
-        <v>0.1840714663983221</v>
+        <v>0.1668369422024156</v>
       </c>
       <c r="H4">
-        <v>0.3594608070543899</v>
+        <v>0.1554329133340602</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7364158086837307</v>
+        <v>2.130455021934125</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9925888887174636</v>
+        <v>0.6301181042220776</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4669837857179004</v>
+        <v>1.460469454473809</v>
       </c>
       <c r="C5">
-        <v>0.1634952817321675</v>
+        <v>0.3457770733972723</v>
       </c>
       <c r="D5">
-        <v>0.0157266590688323</v>
+        <v>0.04943379168582851</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3240096576535052</v>
+        <v>0.2499759755537596</v>
       </c>
       <c r="G5">
-        <v>0.1838638036605857</v>
+        <v>0.1628175528600764</v>
       </c>
       <c r="H5">
-        <v>0.360394384645609</v>
+        <v>0.1551537379115757</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7120598214077205</v>
+        <v>2.032098709854026</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9940333706022102</v>
+        <v>0.6209146826068235</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4637270108456732</v>
+        <v>1.450809833911705</v>
       </c>
       <c r="C6">
-        <v>0.1629351498364713</v>
+        <v>0.3442346841791846</v>
       </c>
       <c r="D6">
-        <v>0.01561676959285307</v>
+        <v>0.04910132300128112</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3239445042005897</v>
+        <v>0.248994040234308</v>
       </c>
       <c r="G6">
-        <v>0.1838329628014961</v>
+        <v>0.1621607090163266</v>
       </c>
       <c r="H6">
-        <v>0.360553002085453</v>
+        <v>0.1551141705328547</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7080229417154982</v>
+        <v>2.015867620678023</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9942883425900249</v>
+        <v>0.6194229579818824</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4863141854037565</v>
+        <v>1.517813512898613</v>
       </c>
       <c r="C7">
-        <v>0.1668213701223351</v>
+        <v>0.3549346114385514</v>
       </c>
       <c r="D7">
-        <v>0.01637894569185505</v>
+        <v>0.05140760942296652</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3244250428805131</v>
+        <v>0.2558779557127195</v>
       </c>
       <c r="G7">
-        <v>0.1840684214619372</v>
+        <v>0.166782017008039</v>
       </c>
       <c r="H7">
-        <v>0.3594731563881126</v>
+        <v>0.1554286890939593</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7360868344652971</v>
+        <v>2.129121576577234</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9926073555503336</v>
+        <v>0.629991508340197</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5855179442698102</v>
+        <v>1.81238717664715</v>
       </c>
       <c r="C8">
-        <v>0.1839249646226051</v>
+        <v>0.4019887306598093</v>
       </c>
       <c r="D8">
-        <v>0.01972759344632635</v>
+        <v>0.06155037440736066</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3272475424687826</v>
+        <v>0.2880510769473901</v>
       </c>
       <c r="G8">
-        <v>0.1856390515843813</v>
+        <v>0.1888183170290105</v>
       </c>
       <c r="H8">
-        <v>0.3552314568356962</v>
+        <v>0.157848452633587</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8610463363554146</v>
+        <v>2.646023166316866</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9873928167925357</v>
+        <v>0.6822537574814191</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7782568001201753</v>
+        <v>2.386117414717603</v>
       </c>
       <c r="C9">
-        <v>0.2172730665704989</v>
+        <v>0.4934998342251333</v>
       </c>
       <c r="D9">
-        <v>0.02623813023038224</v>
+        <v>0.08132092395841539</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3353220329595743</v>
+        <v>0.3587389921399193</v>
       </c>
       <c r="G9">
-        <v>0.1906524392664082</v>
+        <v>0.2390732508731759</v>
       </c>
       <c r="H9">
-        <v>0.3487996483136939</v>
+        <v>0.1667769983185821</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.110542873411021</v>
+        <v>3.750410944160521</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9851449114098614</v>
+        <v>0.8083618085763646</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9186792045018137</v>
+        <v>2.805170197295581</v>
       </c>
       <c r="C10">
-        <v>0.2416343682971842</v>
+        <v>0.5600417600835499</v>
       </c>
       <c r="D10">
-        <v>0.03098469536905668</v>
+        <v>0.09577533214126532</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3428195408954551</v>
+        <v>0.4165278321274002</v>
       </c>
       <c r="G10">
-        <v>0.1955364465317899</v>
+        <v>0.2815118058497745</v>
       </c>
       <c r="H10">
-        <v>0.3452288411542241</v>
+        <v>0.1763919800440163</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.296990622120717</v>
+        <v>4.653834202943031</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9884139801868912</v>
+        <v>0.9190680561958686</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9822869227480169</v>
+        <v>2.995197425167987</v>
       </c>
       <c r="C11">
-        <v>0.2526820761409851</v>
+        <v>0.5900878037429322</v>
       </c>
       <c r="D11">
-        <v>0.03313555504199428</v>
+        <v>0.1023344041133072</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.346573929075717</v>
+        <v>0.4444044144112453</v>
       </c>
       <c r="G11">
-        <v>0.1980237865991796</v>
+        <v>0.3023347589902983</v>
       </c>
       <c r="H11">
-        <v>0.3438561581651953</v>
+        <v>0.1815588422518033</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.382589326474104</v>
+        <v>5.096183332531865</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9909820100158129</v>
+        <v>0.97429920085699</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.006332800113682</v>
+        <v>3.067054665578326</v>
       </c>
       <c r="C12">
-        <v>0.2568601848907974</v>
+        <v>0.6014237992213509</v>
       </c>
       <c r="D12">
-        <v>0.03394877323182754</v>
+        <v>0.1048154789422142</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3480453193643527</v>
+        <v>0.455219856988613</v>
       </c>
       <c r="G12">
-        <v>0.1990042370663332</v>
+        <v>0.310469645651267</v>
       </c>
       <c r="H12">
-        <v>0.3433726362889189</v>
+        <v>0.1836420251493109</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.415123620169084</v>
+        <v>5.26951148361114</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.99211085549328</v>
+        <v>0.9960075645618929</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.001155944654556</v>
+        <v>3.051583794056285</v>
       </c>
       <c r="C13">
-        <v>0.2559606029435599</v>
+        <v>0.5989844366161208</v>
       </c>
       <c r="D13">
-        <v>0.03377368940766701</v>
+        <v>0.1042812634798054</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3477262153137204</v>
+        <v>0.45287848582268</v>
       </c>
       <c r="G13">
-        <v>0.1987913593452362</v>
+        <v>0.3087059879024849</v>
       </c>
       <c r="H13">
-        <v>0.3434751562300988</v>
+        <v>0.1831875226098845</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.408111324865175</v>
+        <v>5.231898117815064</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9918607678272338</v>
+        <v>0.9912953365931116</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9842660243407977</v>
+        <v>3.001111324919748</v>
       </c>
       <c r="C14">
-        <v>0.2530259229687886</v>
+        <v>0.5910213269953317</v>
       </c>
       <c r="D14">
-        <v>0.03320248470774345</v>
+        <v>0.1025385806681243</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3466939840143155</v>
+        <v>0.4452888186002042</v>
       </c>
       <c r="G14">
-        <v>0.1981036742225086</v>
+        <v>0.3029988174396152</v>
       </c>
       <c r="H14">
-        <v>0.3438156508407531</v>
+        <v>0.1817276107257584</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.385263496046122</v>
+        <v>5.110317574714998</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9910717410966754</v>
+        <v>0.9760686686777547</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9739150639750846</v>
+        <v>2.970181605880157</v>
       </c>
       <c r="C15">
-        <v>0.2512276270403504</v>
+        <v>0.5861379109572056</v>
       </c>
       <c r="D15">
-        <v>0.03285243869410692</v>
+        <v>0.1014707706582669</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3460681905810574</v>
+        <v>0.4406746807221538</v>
       </c>
       <c r="G15">
-        <v>0.1976874780475555</v>
+        <v>0.2995365522411646</v>
       </c>
       <c r="H15">
-        <v>0.3440289414588023</v>
+        <v>0.1808502659083899</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.371284380741059</v>
+        <v>5.03664950707585</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9906088341145676</v>
+        <v>0.9668482619452163</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9145166636460544</v>
+        <v>2.792738220481738</v>
       </c>
       <c r="C16">
-        <v>0.2409116422126658</v>
+        <v>0.5580729232447368</v>
       </c>
       <c r="D16">
-        <v>0.03084395784217975</v>
+        <v>0.09534632731536163</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3425811215495784</v>
+        <v>0.4147405153170567</v>
       </c>
       <c r="G16">
-        <v>0.1953792678380779</v>
+        <v>0.2801840865292036</v>
       </c>
       <c r="H16">
-        <v>0.3453236216514455</v>
+        <v>0.1760713033009296</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.291412920954059</v>
+        <v>4.62566031074681</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9882679857481094</v>
+        <v>0.9155642055107194</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8780068000432948</v>
+        <v>2.683719671642905</v>
       </c>
       <c r="C17">
-        <v>0.2345739767123689</v>
+        <v>0.5407926797778373</v>
       </c>
       <c r="D17">
-        <v>0.02960963088790436</v>
+        <v>0.09158481032562094</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3405301389628974</v>
+        <v>0.3992579801868814</v>
       </c>
       <c r="G17">
-        <v>0.194031532562704</v>
+        <v>0.2687214695915543</v>
       </c>
       <c r="H17">
-        <v>0.3461823951393654</v>
+        <v>0.1733510491184234</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.242620017060005</v>
+        <v>4.382385377119078</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9871094784401748</v>
+        <v>0.8854123191450753</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8569818898522499</v>
+        <v>2.620959711503929</v>
       </c>
       <c r="C18">
-        <v>0.2309255122476657</v>
+        <v>0.5308331576779324</v>
       </c>
       <c r="D18">
-        <v>0.02889889386725741</v>
+        <v>0.08941978122055616</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3393828066621722</v>
+        <v>0.3905002304173308</v>
       </c>
       <c r="G18">
-        <v>0.19328132720225</v>
+        <v>0.2622691580386345</v>
       </c>
       <c r="H18">
-        <v>0.3467000242996079</v>
+        <v>0.1718602196971375</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.214628846955435</v>
+        <v>4.245316846738916</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.986544819505653</v>
+        <v>0.868521834977912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8498589146711311</v>
+        <v>2.599701102802157</v>
       </c>
       <c r="C19">
-        <v>0.2296896686454488</v>
+        <v>0.5274577758152077</v>
       </c>
       <c r="D19">
-        <v>0.02865811759949111</v>
+        <v>0.08868648886924291</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3389998860195931</v>
+        <v>0.3875594587713707</v>
       </c>
       <c r="G19">
-        <v>0.1930315993263036</v>
+        <v>0.2601078005189805</v>
       </c>
       <c r="H19">
-        <v>0.3468793498808154</v>
+        <v>0.1713677697102085</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.205163871476302</v>
+        <v>4.19936452091612</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9863710708814892</v>
+        <v>0.8628780473154336</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8818959808860427</v>
+        <v>2.695330699842771</v>
       </c>
       <c r="C20">
-        <v>0.2352489673844502</v>
+        <v>0.5426343600425412</v>
       </c>
       <c r="D20">
-        <v>0.02974110876637326</v>
+        <v>0.09198538781691212</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3407451207749475</v>
+        <v>0.4008906595970956</v>
       </c>
       <c r="G20">
-        <v>0.1941724137301009</v>
+        <v>0.2699269128435446</v>
       </c>
       <c r="H20">
-        <v>0.3460885252395158</v>
+        <v>0.1736329026788042</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.247806474436572</v>
+        <v>4.407978463811588</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.987222272717986</v>
+        <v>0.8885746217785595</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9892281315210312</v>
+        <v>3.015939243894536</v>
       </c>
       <c r="C21">
-        <v>0.2538880604469682</v>
+        <v>0.593361512119003</v>
       </c>
       <c r="D21">
-        <v>0.03337029621074805</v>
+        <v>0.1030505261979897</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3469958248940301</v>
+        <v>0.4475107832006486</v>
       </c>
       <c r="G21">
-        <v>0.1983046149555037</v>
+        <v>0.3046680977180216</v>
       </c>
       <c r="H21">
-        <v>0.3437146538826426</v>
+        <v>0.1821528764346141</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.391971142831409</v>
+        <v>5.145858348374347</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9912992454410414</v>
+        <v>0.9805187545644856</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.059136086782303</v>
+        <v>3.22486719369158</v>
       </c>
       <c r="C22">
-        <v>0.2660379840068003</v>
+        <v>0.6262639279159998</v>
       </c>
       <c r="D22">
-        <v>0.03573477433791084</v>
+        <v>0.1102661251182013</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3513707417286298</v>
+        <v>0.4795086815772862</v>
       </c>
       <c r="G22">
-        <v>0.2012301050471592</v>
+        <v>0.3288476686947064</v>
       </c>
       <c r="H22">
-        <v>0.3423747208106818</v>
+        <v>0.1884664553146962</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.486893648217659</v>
+        <v>5.662960730036872</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9948757756012867</v>
+        <v>1.045290217086148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.021847494252995</v>
+        <v>3.113421560451286</v>
       </c>
       <c r="C23">
-        <v>0.2595564073192804</v>
+        <v>0.6087303281565255</v>
       </c>
       <c r="D23">
-        <v>0.03447350564240992</v>
+        <v>0.1064166809100726</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3490091723600059</v>
+        <v>0.4622793363447144</v>
       </c>
       <c r="G23">
-        <v>0.1996480230971258</v>
+        <v>0.3157957938824438</v>
       </c>
       <c r="H23">
-        <v>0.343070483648404</v>
+        <v>0.18502389948749</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.436164948941226</v>
+        <v>5.383238536917119</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9928831517464687</v>
+        <v>1.010257116818963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8801377907910819</v>
+        <v>2.690081613802533</v>
       </c>
       <c r="C24">
-        <v>0.2349438191915283</v>
+        <v>0.5418018132178304</v>
       </c>
       <c r="D24">
-        <v>0.02968167105751007</v>
+        <v>0.09180429444320026</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3406478284519068</v>
+        <v>0.4001520809432364</v>
       </c>
       <c r="G24">
-        <v>0.194108644678316</v>
+        <v>0.2693815053509638</v>
       </c>
       <c r="H24">
-        <v>0.34613088935739</v>
+        <v>0.1735052499780068</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.245461489104613</v>
+        <v>4.396399221274805</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9871709627138614</v>
+        <v>0.8871435678899218</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7263174004750113</v>
+        <v>2.231328133440968</v>
       </c>
       <c r="C25">
-        <v>0.2082744169010198</v>
+        <v>0.4688449036514157</v>
       </c>
       <c r="D25">
-        <v>0.02448312755733184</v>
+        <v>0.07598485161702939</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3328640302678352</v>
+        <v>0.338684508994497</v>
       </c>
       <c r="G25">
-        <v>0.1890869227953544</v>
+        <v>0.2246062498719255</v>
       </c>
       <c r="H25">
-        <v>0.3503372018471893</v>
+        <v>0.1638648159163978</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.042527182776013</v>
+        <v>3.438634572192896</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9848930400205518</v>
+        <v>0.7713648066497569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.891934624691714</v>
+        <v>2.413345155030186</v>
       </c>
       <c r="C2">
-        <v>0.4146929198476528</v>
+        <v>0.4931398074454876</v>
       </c>
       <c r="D2">
-        <v>0.06429030125000423</v>
+        <v>0.03264148152776514</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2972414987154508</v>
+        <v>1.158530173392279</v>
       </c>
       <c r="G2">
-        <v>0.1952248594450197</v>
+        <v>0.953805341661635</v>
       </c>
       <c r="H2">
-        <v>0.1587702340585153</v>
+        <v>0.006263663782213713</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003870058707437618</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.642313781925111</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6021086615324549</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08124209173812869</v>
       </c>
       <c r="M2">
-        <v>2.791122642280627</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2189897360995801</v>
       </c>
       <c r="O2">
-        <v>0.6978908143533715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4428673021864213</v>
+      </c>
+      <c r="P2">
+        <v>0.9404749148407987</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.66093056863923</v>
+        <v>2.106287914329414</v>
       </c>
       <c r="C3">
-        <v>0.3777951820858334</v>
+        <v>0.431374359884046</v>
       </c>
       <c r="D3">
-        <v>0.05633472265930095</v>
+        <v>0.03097211056406124</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.271132555695047</v>
+        <v>1.093500615916895</v>
       </c>
       <c r="G3">
-        <v>0.1771478360045577</v>
+        <v>0.8886575790238567</v>
       </c>
       <c r="H3">
-        <v>0.1564014405424388</v>
+        <v>0.008885452317906231</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00593226957144255</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6165215047807493</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5848992853570891</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07701980523504925</v>
       </c>
       <c r="M3">
-        <v>2.376324672684731</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1978903098732019</v>
       </c>
       <c r="O3">
-        <v>0.6542396660330922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3888864537183281</v>
+      </c>
+      <c r="P3">
+        <v>0.9719453315992155</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.518596931658664</v>
+        <v>1.91739084428076</v>
       </c>
       <c r="C4">
-        <v>0.3550597315072253</v>
+        <v>0.3937036773916986</v>
       </c>
       <c r="D4">
-        <v>0.05143457667666951</v>
+        <v>0.02995826088766229</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2559594390264408</v>
+        <v>1.054260827205823</v>
       </c>
       <c r="G4">
-        <v>0.1668369422024156</v>
+        <v>0.8492908980843765</v>
       </c>
       <c r="H4">
-        <v>0.1554329133340602</v>
+        <v>0.01078911191798752</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007526621995041616</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6010968049764926</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5746251046838822</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.074396293961426</v>
       </c>
       <c r="M4">
-        <v>2.130455021934125</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1849923392354214</v>
       </c>
       <c r="O4">
-        <v>0.6301181042220776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3557362584813575</v>
+      </c>
+      <c r="P4">
+        <v>0.9918822664568534</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.460469454473809</v>
+        <v>1.839029458447584</v>
       </c>
       <c r="C5">
-        <v>0.3457770733972723</v>
+        <v>0.3788166481181747</v>
       </c>
       <c r="D5">
-        <v>0.04943379168582851</v>
+        <v>0.02956517010213666</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2499759755537596</v>
+        <v>1.037574401952106</v>
       </c>
       <c r="G5">
-        <v>0.1628175528600764</v>
+        <v>0.8324988095784249</v>
       </c>
       <c r="H5">
-        <v>0.1551537379115757</v>
+        <v>0.01164120108113227</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.008338315895031645</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5944540360471535</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5699163389942683</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07331254974212342</v>
       </c>
       <c r="M5">
-        <v>2.032098709854026</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1798634840508555</v>
       </c>
       <c r="O5">
-        <v>0.6209146826068235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.342120314894764</v>
+      </c>
+      <c r="P5">
+        <v>1.000145002875898</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.450809833911705</v>
+        <v>1.824443631885543</v>
       </c>
       <c r="C6">
-        <v>0.3442346841791846</v>
+        <v>0.376850000238079</v>
       </c>
       <c r="D6">
-        <v>0.04910132300128112</v>
+        <v>0.02952179269275668</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.248994040234308</v>
+        <v>1.03376458363627</v>
       </c>
       <c r="G6">
-        <v>0.1621607090163266</v>
+        <v>0.8286227578501411</v>
       </c>
       <c r="H6">
-        <v>0.1551141705328547</v>
+        <v>0.01179365478786533</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.008586654994875431</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5928005295587155</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5684162405548676</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07312530108287163</v>
       </c>
       <c r="M6">
-        <v>2.015867620678023</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1791532387102777</v>
       </c>
       <c r="O6">
-        <v>0.6194229579818824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3397332408033265</v>
+      </c>
+      <c r="P6">
+        <v>1.001513795809915</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.517813512898613</v>
+        <v>1.912037645324119</v>
       </c>
       <c r="C7">
-        <v>0.3549346114385514</v>
+        <v>0.3948781632279292</v>
       </c>
       <c r="D7">
-        <v>0.05140760942296652</v>
+        <v>0.03001232519209651</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2558779557127195</v>
+        <v>1.051169879512798</v>
       </c>
       <c r="G7">
-        <v>0.166782017008039</v>
+        <v>0.8460664404945391</v>
       </c>
       <c r="H7">
-        <v>0.1554286890939593</v>
+        <v>0.01081766509912393</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007817085187016737</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5994873438896491</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5725882798562836</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07436384959306785</v>
       </c>
       <c r="M7">
-        <v>2.129121576577234</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1853082793906964</v>
       </c>
       <c r="O7">
-        <v>0.629991508340197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3552076829462507</v>
+      </c>
+      <c r="P7">
+        <v>0.9919760861323095</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.81238717664715</v>
+        <v>2.301786697108867</v>
       </c>
       <c r="C8">
-        <v>0.4019887306598093</v>
+        <v>0.4736215576530753</v>
       </c>
       <c r="D8">
-        <v>0.06155037440736066</v>
+        <v>0.03214179224614711</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2880510769473901</v>
+        <v>1.132160963164893</v>
       </c>
       <c r="G8">
-        <v>0.1888183170290105</v>
+        <v>0.9272248761698307</v>
       </c>
       <c r="H8">
-        <v>0.157848452633587</v>
+        <v>0.007122512309052809</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004841670694830214</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6313205687606143</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5935020826459834</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07977029479498121</v>
       </c>
       <c r="M8">
-        <v>2.646023166316866</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2122155287579588</v>
       </c>
       <c r="O8">
-        <v>0.6822537574814191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.423791944650759</v>
+      </c>
+      <c r="P8">
+        <v>0.951248098805447</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.386117414717603</v>
+        <v>3.071656806541228</v>
       </c>
       <c r="C9">
-        <v>0.4934998342251333</v>
+        <v>0.6280187847462742</v>
       </c>
       <c r="D9">
-        <v>0.08132092395841539</v>
+        <v>0.03632349394721857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3587389921399193</v>
+        <v>1.302155875268852</v>
       </c>
       <c r="G9">
-        <v>0.2390732508731759</v>
+        <v>1.097420290294338</v>
       </c>
       <c r="H9">
-        <v>0.1667769983185821</v>
+        <v>0.002333365253629482</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001368367710733231</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7000146022855347</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6405823790701035</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09021566126183256</v>
       </c>
       <c r="M9">
-        <v>3.750410944160521</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2648349216262318</v>
       </c>
       <c r="O9">
-        <v>0.8083618085763646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5590058689174242</v>
+      </c>
+      <c r="P9">
+        <v>0.8763481058560654</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.805170197295581</v>
+        <v>3.61920937690013</v>
       </c>
       <c r="C10">
-        <v>0.5600417600835499</v>
+        <v>0.7460200905863132</v>
       </c>
       <c r="D10">
-        <v>0.09577533214126532</v>
+        <v>0.03900734332678724</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4165278321274002</v>
+        <v>1.413184471955688</v>
       </c>
       <c r="G10">
-        <v>0.2815118058497745</v>
+        <v>1.210798293119097</v>
       </c>
       <c r="H10">
-        <v>0.1763919800440163</v>
+        <v>0.0007864910135717551</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008930274869118904</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7450483775445207</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6678502163214759</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09838483733198267</v>
       </c>
       <c r="M10">
-        <v>4.653834202943031</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2945404726632006</v>
       </c>
       <c r="O10">
-        <v>0.9190680561958686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6504093191375091</v>
+      </c>
+      <c r="P10">
+        <v>0.8258489484873586</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.995197425167987</v>
+        <v>3.724746387423238</v>
       </c>
       <c r="C11">
-        <v>0.5900878037429322</v>
+        <v>0.8177044138035683</v>
       </c>
       <c r="D11">
-        <v>0.1023344041133072</v>
+        <v>0.03621848732315058</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4444044144112453</v>
+        <v>1.314978397512931</v>
       </c>
       <c r="G11">
-        <v>0.3023347589902983</v>
+        <v>1.133890718615632</v>
       </c>
       <c r="H11">
-        <v>0.1815588422518033</v>
+        <v>0.01927505592140832</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001462571765170395</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7013312633925892</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6080481800496074</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1126682599224935</v>
       </c>
       <c r="M11">
-        <v>5.096183332531865</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2309859375850252</v>
       </c>
       <c r="O11">
-        <v>0.97429920085699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6222525267503016</v>
+      </c>
+      <c r="P11">
+        <v>0.8205162000452937</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.067054665578326</v>
+        <v>3.702762231574127</v>
       </c>
       <c r="C12">
-        <v>0.6014237992213509</v>
+        <v>0.851498357511332</v>
       </c>
       <c r="D12">
-        <v>0.1048154789422142</v>
+        <v>0.03375058363192451</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.455219856988613</v>
+        <v>1.214946009152015</v>
       </c>
       <c r="G12">
-        <v>0.310469645651267</v>
+        <v>1.050929198223344</v>
       </c>
       <c r="H12">
-        <v>0.1836420251493109</v>
+        <v>0.058011062356492</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001474824058677271</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6576819433485213</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5566993450186999</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1310135277650062</v>
       </c>
       <c r="M12">
-        <v>5.26951148361114</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1784037245206065</v>
       </c>
       <c r="O12">
-        <v>0.9960075645618929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5802703311803938</v>
+      </c>
+      <c r="P12">
+        <v>0.8345046246272432</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.051583794056285</v>
+        <v>3.574576007922815</v>
       </c>
       <c r="C13">
-        <v>0.5989844366161208</v>
+        <v>0.8598464034089091</v>
       </c>
       <c r="D13">
-        <v>0.1042812634798054</v>
+        <v>0.03146760183001085</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.45287848582268</v>
+        <v>1.103348568195671</v>
       </c>
       <c r="G13">
-        <v>0.3087059879024849</v>
+        <v>0.9538184988711436</v>
       </c>
       <c r="H13">
-        <v>0.1831875226098845</v>
+        <v>0.113962745145173</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001393435992784298</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6091441308249443</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5057950016322934</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1531498704008669</v>
       </c>
       <c r="M13">
-        <v>5.231898117815064</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1320931860501275</v>
       </c>
       <c r="O13">
-        <v>0.9912953365931116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5250009146957879</v>
+      </c>
+      <c r="P13">
+        <v>0.8631675205025005</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.001111324919748</v>
+        <v>3.43604570605595</v>
       </c>
       <c r="C14">
-        <v>0.5910213269953317</v>
+        <v>0.854616622131573</v>
       </c>
       <c r="D14">
-        <v>0.1025385806681243</v>
+        <v>0.0300424700516162</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4452888186002042</v>
+        <v>1.020279372267368</v>
       </c>
       <c r="G14">
-        <v>0.3029988174396152</v>
+        <v>0.8794981789981904</v>
       </c>
       <c r="H14">
-        <v>0.1817276107257584</v>
+        <v>0.1635323762601928</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001413438836544323</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5729376789673069</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4704412170083359</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1712155672313429</v>
       </c>
       <c r="M14">
-        <v>5.110317574714998</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1039335388923419</v>
       </c>
       <c r="O14">
-        <v>0.9760686686777547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4806969552739204</v>
+      </c>
+      <c r="P14">
+        <v>0.8906803076958312</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.970181605880157</v>
+        <v>3.378500251051491</v>
       </c>
       <c r="C15">
-        <v>0.5861379109572056</v>
+        <v>0.8484300183196751</v>
       </c>
       <c r="D15">
-        <v>0.1014707706582669</v>
+        <v>0.02967186701722024</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4406746807221538</v>
+        <v>0.9965900672278281</v>
       </c>
       <c r="G15">
-        <v>0.2995365522411646</v>
+        <v>0.8573831058622545</v>
       </c>
       <c r="H15">
-        <v>0.1808502659083899</v>
+        <v>0.1761550418070925</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001536147392985576</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5625911373122534</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4611695480220419</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1753721202076974</v>
       </c>
       <c r="M15">
-        <v>5.03664950707585</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09751252182137193</v>
       </c>
       <c r="O15">
-        <v>0.9668482619452163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4669958561043899</v>
+      </c>
+      <c r="P15">
+        <v>0.8997095880073047</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.792738220481738</v>
+        <v>3.169069161760376</v>
       </c>
       <c r="C16">
-        <v>0.5580729232447368</v>
+        <v>0.7958816385669536</v>
       </c>
       <c r="D16">
-        <v>0.09534632731536163</v>
+        <v>0.02902186743074431</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4147405153170567</v>
+        <v>0.9713449143473838</v>
       </c>
       <c r="G16">
-        <v>0.2801840865292036</v>
+        <v>0.8277465339845094</v>
       </c>
       <c r="H16">
-        <v>0.1760713033009296</v>
+        <v>0.1640648998874923</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001789545449205399</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5525724651370894</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4591632595717385</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1665295322656206</v>
       </c>
       <c r="M16">
-        <v>4.62566031074681</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0956586944536042</v>
       </c>
       <c r="O16">
-        <v>0.9155642055107194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4402866939848167</v>
+      </c>
+      <c r="P16">
+        <v>0.9124536822979508</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.683719671642905</v>
+        <v>3.081771477397751</v>
       </c>
       <c r="C17">
-        <v>0.5407926797778373</v>
+        <v>0.7586113441506939</v>
       </c>
       <c r="D17">
-        <v>0.09158481032562094</v>
+        <v>0.02923561242723061</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3992579801868814</v>
+        <v>0.9956083837236775</v>
       </c>
       <c r="G17">
-        <v>0.2687214695915543</v>
+        <v>0.8441097919870515</v>
       </c>
       <c r="H17">
-        <v>0.1733510491184234</v>
+        <v>0.1266946212698485</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002027490589314951</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5639869179140931</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4760935665159778</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1496200036260049</v>
       </c>
       <c r="M17">
-        <v>4.382385377119078</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1082783175888338</v>
       </c>
       <c r="O17">
-        <v>0.8854123191450753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4429931543441512</v>
+      </c>
+      <c r="P17">
+        <v>0.9076172151749091</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.620959711503929</v>
+        <v>3.092291317108959</v>
       </c>
       <c r="C18">
-        <v>0.5308331576779324</v>
+        <v>0.7289877161409493</v>
       </c>
       <c r="D18">
-        <v>0.08941978122055616</v>
+        <v>0.03046470016779423</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3905002304173308</v>
+        <v>1.068580231121459</v>
       </c>
       <c r="G18">
-        <v>0.2622691580386345</v>
+        <v>0.9049861782442576</v>
       </c>
       <c r="H18">
-        <v>0.1718602196971375</v>
+        <v>0.07396001664354657</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001864028582117427</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5965952612166632</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5136582823596427</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1274593639387689</v>
       </c>
       <c r="M18">
-        <v>4.245316846738916</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1387041293919182</v>
       </c>
       <c r="O18">
-        <v>0.868521834977912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4720937407907186</v>
+      </c>
+      <c r="P18">
+        <v>0.8900522726023539</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.599701102802157</v>
+        <v>3.17227594094868</v>
       </c>
       <c r="C19">
-        <v>0.5274577758152077</v>
+        <v>0.7106918827068966</v>
       </c>
       <c r="D19">
-        <v>0.08868648886924291</v>
+        <v>0.03289636275001406</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3875594587713707</v>
+        <v>1.173637312738606</v>
       </c>
       <c r="G19">
-        <v>0.2601078005189805</v>
+        <v>0.9944849210957187</v>
       </c>
       <c r="H19">
-        <v>0.1713677697102085</v>
+        <v>0.02841634101858403</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001911837701878305</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6423233851245556</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5640506481435281</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1082795916881949</v>
       </c>
       <c r="M19">
-        <v>4.19936452091612</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1880643153579484</v>
       </c>
       <c r="O19">
-        <v>0.8628780473154336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5208799766554648</v>
+      </c>
+      <c r="P19">
+        <v>0.8703274768311111</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.695330699842771</v>
+        <v>3.460927917348954</v>
       </c>
       <c r="C20">
-        <v>0.5426343600425412</v>
+        <v>0.7193563858672007</v>
       </c>
       <c r="D20">
-        <v>0.09198538781691212</v>
+        <v>0.03845519285574639</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4008906595970956</v>
+        <v>1.374059227175479</v>
       </c>
       <c r="G20">
-        <v>0.2699269128435446</v>
+        <v>1.170707974103792</v>
       </c>
       <c r="H20">
-        <v>0.1736329026788042</v>
+        <v>0.001074695861418284</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001674401542324233</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7280092387630646</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6541123422251189</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0962170340786539</v>
       </c>
       <c r="M20">
-        <v>4.407978463811588</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2875283116649285</v>
       </c>
       <c r="O20">
-        <v>0.8885746217785595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6249469583759577</v>
+      </c>
+      <c r="P20">
+        <v>0.839450950293827</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.015939243894536</v>
+        <v>3.908084194891217</v>
       </c>
       <c r="C21">
-        <v>0.593361512119003</v>
+        <v>0.8072822832091049</v>
       </c>
       <c r="D21">
-        <v>0.1030505261979897</v>
+        <v>0.04132864658913959</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4475107832006486</v>
+        <v>1.489073207571607</v>
       </c>
       <c r="G21">
-        <v>0.3046680977180216</v>
+        <v>1.283856015277024</v>
       </c>
       <c r="H21">
-        <v>0.1821528764346141</v>
+        <v>0.0001236134787565568</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001808967252118876</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7757539831969211</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6897440026440691</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1017073173065217</v>
       </c>
       <c r="M21">
-        <v>5.145858348374347</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3251588301019126</v>
       </c>
       <c r="O21">
-        <v>0.9805187545644856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7078571924718489</v>
+      </c>
+      <c r="P21">
+        <v>0.800194780610763</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.22486719369158</v>
+        <v>4.198573563563798</v>
       </c>
       <c r="C22">
-        <v>0.6262639279159998</v>
+        <v>0.8643853871151919</v>
       </c>
       <c r="D22">
-        <v>0.1102661251182013</v>
+        <v>0.04289229099893888</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4795086815772862</v>
+        <v>1.560472380295494</v>
       </c>
       <c r="G22">
-        <v>0.3288476686947064</v>
+        <v>1.35545964244821</v>
       </c>
       <c r="H22">
-        <v>0.1884664553146962</v>
+        <v>1.118081922379943E-06</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002032042342925422</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8058499331424969</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7118588710763021</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1056049682442364</v>
       </c>
       <c r="M22">
-        <v>5.662960730036872</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.344460702660939</v>
       </c>
       <c r="O22">
-        <v>1.045290217086148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7585612389055498</v>
+      </c>
+      <c r="P22">
+        <v>0.7755247899042104</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.113421560451286</v>
+        <v>4.048796632973563</v>
       </c>
       <c r="C23">
-        <v>0.6087303281565255</v>
+        <v>0.8321653500047432</v>
       </c>
       <c r="D23">
-        <v>0.1064166809100726</v>
+        <v>0.04198395937818589</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4622793363447144</v>
+        <v>1.525654094390205</v>
       </c>
       <c r="G23">
-        <v>0.3157957938824438</v>
+        <v>1.320704801777822</v>
       </c>
       <c r="H23">
-        <v>0.18502389948749</v>
+        <v>2.85080471948973E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001575180494160833</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7915203555240566</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.7023278388210699</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1035368302850355</v>
       </c>
       <c r="M23">
-        <v>5.383238536917119</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3336753194524391</v>
       </c>
       <c r="O23">
-        <v>1.010257116818963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7319152597393952</v>
+      </c>
+      <c r="P23">
+        <v>0.7883849014303408</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.690081613802533</v>
+        <v>3.473940381181194</v>
       </c>
       <c r="C24">
-        <v>0.5418018132178304</v>
+        <v>0.7140229651478478</v>
       </c>
       <c r="D24">
-        <v>0.09180429444320026</v>
+        <v>0.03871643639888944</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4001520809432364</v>
+        <v>1.390796451997829</v>
       </c>
       <c r="G24">
-        <v>0.2693815053509638</v>
+        <v>1.185823735772743</v>
       </c>
       <c r="H24">
-        <v>0.1735052499780068</v>
+        <v>0.0009089805092952208</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001176963467855785</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7357251165338852</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6635732704803772</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09573626378902755</v>
       </c>
       <c r="M24">
-        <v>4.396399221274805</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2938308719725029</v>
       </c>
       <c r="O24">
-        <v>0.8871435678899218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6305840198342949</v>
+      </c>
+      <c r="P24">
+        <v>0.8389242979995473</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.231328133440968</v>
+        <v>2.855555782347665</v>
       </c>
       <c r="C25">
-        <v>0.4688449036514157</v>
+        <v>0.5884580305356053</v>
       </c>
       <c r="D25">
-        <v>0.07598485161702939</v>
+        <v>0.03528453797196818</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.338684508994497</v>
+        <v>1.250242726821014</v>
       </c>
       <c r="G25">
-        <v>0.2246062498719255</v>
+        <v>1.045229404065481</v>
       </c>
       <c r="H25">
-        <v>0.1638648159163978</v>
+        <v>0.003357490677548092</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002436893785852767</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.678262606296073</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6239841905247658</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08737455297103924</v>
       </c>
       <c r="M25">
-        <v>3.438634572192896</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2512370564392938</v>
       </c>
       <c r="O25">
-        <v>0.7713648066497569</v>
+        <v>0.5217539232004498</v>
+      </c>
+      <c r="P25">
+        <v>0.8962425923821247</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.413345155030186</v>
+        <v>2.279985312206634</v>
       </c>
       <c r="C2">
-        <v>0.4931398074454876</v>
+        <v>0.5267772709037217</v>
       </c>
       <c r="D2">
-        <v>0.03264148152776514</v>
+        <v>0.03604824370981419</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.158530173392279</v>
+        <v>1.054354052590867</v>
       </c>
       <c r="G2">
-        <v>0.953805341661635</v>
+        <v>0.8293155544306785</v>
       </c>
       <c r="H2">
-        <v>0.006263663782213713</v>
+        <v>0.005288403828951682</v>
       </c>
       <c r="I2">
-        <v>0.003870058707437618</v>
+        <v>0.002811118365272591</v>
       </c>
       <c r="J2">
-        <v>0.642313781925111</v>
+        <v>0.6158676394649945</v>
       </c>
       <c r="K2">
-        <v>0.6021086615324549</v>
+        <v>0.5221200116452138</v>
       </c>
       <c r="L2">
-        <v>0.08124209173812869</v>
+        <v>0.2366948363992556</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1595034172767029</v>
       </c>
       <c r="N2">
-        <v>0.2189897360995801</v>
+        <v>0.08008215296205279</v>
       </c>
       <c r="O2">
-        <v>0.4428673021864213</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9404749148407987</v>
+        <v>0.2386791289867034</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4321854959162579</v>
+      </c>
+      <c r="R2">
+        <v>0.9173433850509376</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.106287914329414</v>
+        <v>1.995028005894426</v>
       </c>
       <c r="C3">
-        <v>0.431374359884046</v>
+        <v>0.4575945211550163</v>
       </c>
       <c r="D3">
-        <v>0.03097211056406124</v>
+        <v>0.03431616401481818</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.093500615916895</v>
+        <v>1.000915793336645</v>
       </c>
       <c r="G3">
-        <v>0.8886575790238567</v>
+        <v>0.7787358028246274</v>
       </c>
       <c r="H3">
-        <v>0.008885452317906231</v>
+        <v>0.00749020711310347</v>
       </c>
       <c r="I3">
-        <v>0.00593226957144255</v>
+        <v>0.004283865701471434</v>
       </c>
       <c r="J3">
-        <v>0.6165215047807493</v>
+        <v>0.5913174941141222</v>
       </c>
       <c r="K3">
-        <v>0.5848992853570891</v>
+        <v>0.5118392751652614</v>
       </c>
       <c r="L3">
-        <v>0.07701980523504925</v>
+        <v>0.2382002674741308</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1515661326663214</v>
       </c>
       <c r="N3">
-        <v>0.1978903098732019</v>
+        <v>0.07606580845376332</v>
       </c>
       <c r="O3">
-        <v>0.3888864537183281</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9719453315992155</v>
+        <v>0.2159626583502074</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3799331005812903</v>
+      </c>
+      <c r="R3">
+        <v>0.9429463402689571</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.91739084428076</v>
+        <v>1.819266411325913</v>
       </c>
       <c r="C4">
-        <v>0.3937036773916986</v>
+        <v>0.4154606303806929</v>
       </c>
       <c r="D4">
-        <v>0.02995826088766229</v>
+        <v>0.0332692229616427</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.054260827205823</v>
+        <v>0.9685393245102389</v>
       </c>
       <c r="G4">
-        <v>0.8492908980843765</v>
+        <v>0.7482444038856215</v>
       </c>
       <c r="H4">
-        <v>0.01078911191798752</v>
+        <v>0.009089407131439534</v>
       </c>
       <c r="I4">
-        <v>0.007526621995041616</v>
+        <v>0.005450774077476073</v>
       </c>
       <c r="J4">
-        <v>0.6010968049764926</v>
+        <v>0.5762788461953647</v>
       </c>
       <c r="K4">
-        <v>0.5746251046838822</v>
+        <v>0.505667182813152</v>
       </c>
       <c r="L4">
-        <v>0.074396293961426</v>
+        <v>0.2390320692486654</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.147412619430618</v>
       </c>
       <c r="N4">
-        <v>0.1849923392354214</v>
+        <v>0.07357093193753794</v>
       </c>
       <c r="O4">
-        <v>0.3557362584813575</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9918822664568534</v>
+        <v>0.2021019478225838</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3477984939081153</v>
+      </c>
+      <c r="R4">
+        <v>0.959352845298362</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.839029458447584</v>
+        <v>1.746210374499015</v>
       </c>
       <c r="C5">
-        <v>0.3788166481181747</v>
+        <v>0.3987929320095134</v>
       </c>
       <c r="D5">
-        <v>0.02956517010213666</v>
+        <v>0.03286590879034179</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.037574401952106</v>
+        <v>0.9546449240756019</v>
       </c>
       <c r="G5">
-        <v>0.8324988095784249</v>
+        <v>0.7351257752220448</v>
       </c>
       <c r="H5">
-        <v>0.01164120108113227</v>
+        <v>0.009805514962533152</v>
       </c>
       <c r="I5">
-        <v>0.008338315895031645</v>
+        <v>0.006083842522030203</v>
       </c>
       <c r="J5">
-        <v>0.5944540360471535</v>
+        <v>0.5697201538578867</v>
       </c>
       <c r="K5">
-        <v>0.5699163389942683</v>
+        <v>0.502653861673366</v>
       </c>
       <c r="L5">
-        <v>0.07331254974212342</v>
+        <v>0.2391035426734724</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1457442352061591</v>
       </c>
       <c r="N5">
-        <v>0.1798634840508555</v>
+        <v>0.07254379212887674</v>
       </c>
       <c r="O5">
-        <v>0.342120314894764</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.000145002875898</v>
+        <v>0.1965901492916444</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3345887857842769</v>
+      </c>
+      <c r="R5">
+        <v>0.9662720231032047</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.824443631885543</v>
+        <v>1.732568463029679</v>
       </c>
       <c r="C6">
-        <v>0.376850000238079</v>
+        <v>0.3965503590959827</v>
       </c>
       <c r="D6">
-        <v>0.02952179269275668</v>
+        <v>0.03282312965574619</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.03376458363627</v>
+        <v>0.9513640278051412</v>
       </c>
       <c r="G6">
-        <v>0.8286227578501411</v>
+        <v>0.7319489344004637</v>
       </c>
       <c r="H6">
-        <v>0.01179365478786533</v>
+        <v>0.009933786684405348</v>
       </c>
       <c r="I6">
-        <v>0.008586654994875431</v>
+        <v>0.006316799780046622</v>
       </c>
       <c r="J6">
-        <v>0.5928005295587155</v>
+        <v>0.5680972580727826</v>
       </c>
       <c r="K6">
-        <v>0.5684162405548676</v>
+        <v>0.5015074918515339</v>
       </c>
       <c r="L6">
-        <v>0.07312530108287163</v>
+        <v>0.2388165935308244</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1452883956514199</v>
       </c>
       <c r="N6">
-        <v>0.1791532387102777</v>
+        <v>0.07237020647013992</v>
       </c>
       <c r="O6">
-        <v>0.3397332408033265</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.001513795809915</v>
+        <v>0.1958188638743223</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3322723452791152</v>
+      </c>
+      <c r="R6">
+        <v>0.9675133775571396</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.912037645324119</v>
+        <v>1.8123820348425</v>
       </c>
       <c r="C7">
-        <v>0.3948781632279292</v>
+        <v>0.4156245493626898</v>
       </c>
       <c r="D7">
-        <v>0.03001232519209651</v>
+        <v>0.03341932320704188</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.051169879512798</v>
+        <v>0.9640047885958793</v>
       </c>
       <c r="G7">
-        <v>0.8460664404945391</v>
+        <v>0.7489740084481014</v>
       </c>
       <c r="H7">
-        <v>0.01081766509912393</v>
+        <v>0.009122741438568116</v>
       </c>
       <c r="I7">
-        <v>0.007817085187016737</v>
+        <v>0.005786469743298994</v>
       </c>
       <c r="J7">
-        <v>0.5994873438896491</v>
+        <v>0.5679305087735855</v>
       </c>
       <c r="K7">
-        <v>0.5725882798562836</v>
+        <v>0.5030720343219528</v>
       </c>
       <c r="L7">
-        <v>0.07436384959306785</v>
+        <v>0.2378817507154096</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1466202781936694</v>
       </c>
       <c r="N7">
-        <v>0.1853082793906964</v>
+        <v>0.07352355654341203</v>
       </c>
       <c r="O7">
-        <v>0.3552076829462507</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9919760861323095</v>
+        <v>0.2023844297084452</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.347021372713975</v>
+      </c>
+      <c r="R7">
+        <v>0.9598229172250754</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.301786697108867</v>
+        <v>2.170393710275221</v>
       </c>
       <c r="C8">
-        <v>0.4736215576530753</v>
+        <v>0.5012638995146688</v>
       </c>
       <c r="D8">
-        <v>0.03214179224614711</v>
+        <v>0.03583939420735049</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.132160963164893</v>
+        <v>1.026760952373735</v>
       </c>
       <c r="G8">
-        <v>0.9272248761698307</v>
+        <v>0.8203625588153614</v>
       </c>
       <c r="H8">
-        <v>0.007122512309052809</v>
+        <v>0.006032717359901574</v>
       </c>
       <c r="I8">
-        <v>0.004841670694830214</v>
+        <v>0.003663321884328496</v>
       </c>
       <c r="J8">
-        <v>0.6313205687606143</v>
+        <v>0.583101660507424</v>
       </c>
       <c r="K8">
-        <v>0.5935020826459834</v>
+        <v>0.5136358254204367</v>
       </c>
       <c r="L8">
-        <v>0.07977029479498121</v>
+        <v>0.2351599070999448</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1549960334830232</v>
       </c>
       <c r="N8">
-        <v>0.2122155287579588</v>
+        <v>0.07860819960639986</v>
       </c>
       <c r="O8">
-        <v>0.423791944650759</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.951248098805447</v>
+        <v>0.2312372637091684</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4128432092574243</v>
+      </c>
+      <c r="R8">
+        <v>0.9270135360360001</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.071656806541228</v>
+        <v>2.880457520160064</v>
       </c>
       <c r="C9">
-        <v>0.6280187847462742</v>
+        <v>0.6735500804640253</v>
       </c>
       <c r="D9">
-        <v>0.03632349394721857</v>
+        <v>0.04028582130401404</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.302155875268852</v>
+        <v>1.16453934130034</v>
       </c>
       <c r="G9">
-        <v>1.097420290294338</v>
+        <v>0.9569927722870517</v>
       </c>
       <c r="H9">
-        <v>0.002333365253629482</v>
+        <v>0.002001612158585409</v>
       </c>
       <c r="I9">
-        <v>0.001368367710733231</v>
+        <v>0.001202144162014029</v>
       </c>
       <c r="J9">
-        <v>0.7000146022855347</v>
+        <v>0.6401017693941782</v>
       </c>
       <c r="K9">
-        <v>0.6405823790701035</v>
+        <v>0.5415947872032589</v>
       </c>
       <c r="L9">
-        <v>0.09021566126183256</v>
+        <v>0.2316947203848869</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1791473102550469</v>
       </c>
       <c r="N9">
-        <v>0.2648349216262318</v>
+        <v>0.08850556002918175</v>
       </c>
       <c r="O9">
-        <v>0.5590058689174242</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8763481058560654</v>
+        <v>0.2880161439822047</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5431797664200886</v>
+      </c>
+      <c r="R9">
+        <v>0.8672179311045731</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.61920937690013</v>
+        <v>3.373271890090621</v>
       </c>
       <c r="C10">
-        <v>0.7460200905863132</v>
+        <v>0.7982052275706621</v>
       </c>
       <c r="D10">
-        <v>0.03900734332678724</v>
+        <v>0.04362451184771388</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.413184471955688</v>
+        <v>1.243215150785687</v>
       </c>
       <c r="G10">
-        <v>1.210798293119097</v>
+        <v>1.069794919592454</v>
       </c>
       <c r="H10">
-        <v>0.0007864910135717551</v>
+        <v>0.0007311702065950776</v>
       </c>
       <c r="I10">
-        <v>0.0008930274869118904</v>
+        <v>0.001084981589690059</v>
       </c>
       <c r="J10">
-        <v>0.7450483775445207</v>
+        <v>0.6376250083584694</v>
       </c>
       <c r="K10">
-        <v>0.6678502163214759</v>
+        <v>0.551414872838329</v>
       </c>
       <c r="L10">
-        <v>0.09838483733198267</v>
+        <v>0.2245483184231318</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.195951078368946</v>
       </c>
       <c r="N10">
-        <v>0.2945404726632006</v>
+        <v>0.09640823873316329</v>
       </c>
       <c r="O10">
-        <v>0.6504093191375091</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8258489484873586</v>
+        <v>0.320110512531727</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6293988698294868</v>
+      </c>
+      <c r="R10">
+        <v>0.8313013357013226</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.724746387423238</v>
+        <v>3.457743004221527</v>
       </c>
       <c r="C11">
-        <v>0.8177044138035683</v>
+        <v>0.856547659322672</v>
       </c>
       <c r="D11">
-        <v>0.03621848732315058</v>
+        <v>0.0408642994123305</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.314978397512931</v>
+        <v>1.136079330086943</v>
       </c>
       <c r="G11">
-        <v>1.133890718615632</v>
+        <v>1.04909493738667</v>
       </c>
       <c r="H11">
-        <v>0.01927505592140832</v>
+        <v>0.01926646499711993</v>
       </c>
       <c r="I11">
-        <v>0.001462571765170395</v>
+        <v>0.001785762975295313</v>
       </c>
       <c r="J11">
-        <v>0.7013312633925892</v>
+        <v>0.5279481889986926</v>
       </c>
       <c r="K11">
-        <v>0.6080481800496074</v>
+        <v>0.4927032327996272</v>
       </c>
       <c r="L11">
-        <v>0.1126682599224935</v>
+        <v>0.1992730265801406</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1784884115487841</v>
       </c>
       <c r="N11">
-        <v>0.2309859375850252</v>
+        <v>0.1125645167241984</v>
       </c>
       <c r="O11">
-        <v>0.6222525267503016</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8205162000452937</v>
+        <v>0.2522670939773377</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5987974643551013</v>
+      </c>
+      <c r="R11">
+        <v>0.8497067058485115</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.702762231574127</v>
+        <v>3.436450715832905</v>
       </c>
       <c r="C12">
-        <v>0.851498357511332</v>
+        <v>0.8809994301633992</v>
       </c>
       <c r="D12">
-        <v>0.03375058363192451</v>
+        <v>0.03777242469559638</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.214946009152015</v>
+        <v>1.041654163840363</v>
       </c>
       <c r="G12">
-        <v>1.050929198223344</v>
+        <v>0.9977116481780115</v>
       </c>
       <c r="H12">
-        <v>0.058011062356492</v>
+        <v>0.05801213872702959</v>
       </c>
       <c r="I12">
-        <v>0.001474824058677271</v>
+        <v>0.001796416231157671</v>
       </c>
       <c r="J12">
-        <v>0.6576819433485213</v>
+        <v>0.4657802821766097</v>
       </c>
       <c r="K12">
-        <v>0.5566993450186999</v>
+        <v>0.448555515746186</v>
       </c>
       <c r="L12">
-        <v>0.1310135277650062</v>
+        <v>0.1825499784555298</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1625702558202278</v>
       </c>
       <c r="N12">
-        <v>0.1784037245206065</v>
+        <v>0.1322832720865357</v>
       </c>
       <c r="O12">
-        <v>0.5802703311803938</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8345046246272432</v>
+        <v>0.1959102374621935</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5569399336874739</v>
+      </c>
+      <c r="R12">
+        <v>0.8791422591723901</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.574576007922815</v>
+        <v>3.330850709143647</v>
       </c>
       <c r="C13">
-        <v>0.8598464034089091</v>
+        <v>0.8858568109908447</v>
       </c>
       <c r="D13">
-        <v>0.03146760183001085</v>
+        <v>0.03437365318698937</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.103348568195671</v>
+        <v>0.9500712256808299</v>
       </c>
       <c r="G13">
-        <v>0.9538184988711436</v>
+        <v>0.9070662684568873</v>
       </c>
       <c r="H13">
-        <v>0.113962745145173</v>
+        <v>0.1139389630205585</v>
       </c>
       <c r="I13">
-        <v>0.001393435992784298</v>
+        <v>0.001700960772635263</v>
       </c>
       <c r="J13">
-        <v>0.6091441308249443</v>
+        <v>0.4398688639564909</v>
       </c>
       <c r="K13">
-        <v>0.5057950016322934</v>
+        <v>0.4111803510393912</v>
       </c>
       <c r="L13">
-        <v>0.1531498704008669</v>
+        <v>0.1701147195883657</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1466769474088103</v>
       </c>
       <c r="N13">
-        <v>0.1320931860501275</v>
+        <v>0.1557393028375174</v>
       </c>
       <c r="O13">
-        <v>0.5250009146957879</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8631675205025005</v>
+        <v>0.14608744747229</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5042794963241448</v>
+      </c>
+      <c r="R13">
+        <v>0.9150258102022377</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.43604570605595</v>
+        <v>3.217526938322067</v>
       </c>
       <c r="C14">
-        <v>0.854616622131573</v>
+        <v>0.8807917009213782</v>
       </c>
       <c r="D14">
-        <v>0.0300424700516162</v>
+        <v>0.03210540023772523</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.020279372267368</v>
+        <v>0.8864670157502701</v>
       </c>
       <c r="G14">
-        <v>0.8794981789981904</v>
+        <v>0.8276067789570618</v>
       </c>
       <c r="H14">
-        <v>0.1635323762601928</v>
+        <v>0.1634668516786917</v>
       </c>
       <c r="I14">
-        <v>0.001413438836544323</v>
+        <v>0.001708369603545812</v>
       </c>
       <c r="J14">
-        <v>0.5729376789673069</v>
+        <v>0.435069086896533</v>
       </c>
       <c r="K14">
-        <v>0.4704412170083359</v>
+        <v>0.387546231983233</v>
       </c>
       <c r="L14">
-        <v>0.1712155672313429</v>
+        <v>0.1629447740684284</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.135578053418218</v>
       </c>
       <c r="N14">
-        <v>0.1039335388923419</v>
+        <v>0.1747307129626918</v>
       </c>
       <c r="O14">
-        <v>0.4806969552739204</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8906803076958312</v>
+        <v>0.1156347281634851</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4627595028542402</v>
+      </c>
+      <c r="R14">
+        <v>0.943008041310371</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.378500251051491</v>
+        <v>3.170283992341069</v>
       </c>
       <c r="C15">
-        <v>0.8484300183196751</v>
+        <v>0.8757580132437113</v>
       </c>
       <c r="D15">
-        <v>0.02967186701722024</v>
+        <v>0.0315105952473882</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9965900672278281</v>
+        <v>0.8699926434732959</v>
       </c>
       <c r="G15">
-        <v>0.8573831058622545</v>
+        <v>0.8004797331898601</v>
       </c>
       <c r="H15">
-        <v>0.1761550418070925</v>
+        <v>0.1760665139977249</v>
       </c>
       <c r="I15">
-        <v>0.001536147392985576</v>
+        <v>0.001840088086710878</v>
       </c>
       <c r="J15">
-        <v>0.5625911373122534</v>
+        <v>0.439183110950367</v>
       </c>
       <c r="K15">
-        <v>0.4611695480220419</v>
+        <v>0.3822281554854143</v>
       </c>
       <c r="L15">
-        <v>0.1753721202076974</v>
+        <v>0.1616342494209597</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1326123052147388</v>
       </c>
       <c r="N15">
-        <v>0.09751252182137193</v>
+        <v>0.1791565562532256</v>
       </c>
       <c r="O15">
-        <v>0.4669958561043899</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8997095880073047</v>
+        <v>0.1086822458543395</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4501585870246672</v>
+      </c>
+      <c r="R15">
+        <v>0.9503736507768181</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.169069161760376</v>
+        <v>2.996021623924435</v>
       </c>
       <c r="C16">
-        <v>0.7958816385669536</v>
+        <v>0.8317392344490599</v>
       </c>
       <c r="D16">
-        <v>0.02902186743074431</v>
+        <v>0.03058530531800496</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9713449143473838</v>
+        <v>0.8658348984589495</v>
       </c>
       <c r="G16">
-        <v>0.8277465339845094</v>
+        <v>0.7402841083811325</v>
       </c>
       <c r="H16">
-        <v>0.1640648998874923</v>
+        <v>0.1638425841705953</v>
       </c>
       <c r="I16">
-        <v>0.001789545449205399</v>
+        <v>0.002002736815367889</v>
       </c>
       <c r="J16">
-        <v>0.5525724651370894</v>
+        <v>0.4882393672622527</v>
       </c>
       <c r="K16">
-        <v>0.4591632595717385</v>
+        <v>0.3894430448727668</v>
       </c>
       <c r="L16">
-        <v>0.1665295322656206</v>
+        <v>0.1670291180185401</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1312624349079918</v>
       </c>
       <c r="N16">
-        <v>0.0956586944536042</v>
+        <v>0.1706723415944964</v>
       </c>
       <c r="O16">
-        <v>0.4402866939848167</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9124536822979508</v>
+        <v>0.1068875844607788</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4270974623171853</v>
+      </c>
+      <c r="R16">
+        <v>0.9481571078571207</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.081771477397751</v>
+        <v>2.919527923949829</v>
       </c>
       <c r="C17">
-        <v>0.7586113441506939</v>
+        <v>0.7989340099331059</v>
       </c>
       <c r="D17">
-        <v>0.02923561242723061</v>
+        <v>0.03094995101159448</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9956083837236775</v>
+        <v>0.8946775429188989</v>
       </c>
       <c r="G17">
-        <v>0.8441097919870515</v>
+        <v>0.7401348865455191</v>
       </c>
       <c r="H17">
-        <v>0.1266946212698485</v>
+        <v>0.126387564285892</v>
       </c>
       <c r="I17">
-        <v>0.002027490589314951</v>
+        <v>0.002172005130456789</v>
       </c>
       <c r="J17">
-        <v>0.5639869179140931</v>
+        <v>0.523561707646877</v>
       </c>
       <c r="K17">
-        <v>0.4760935665159778</v>
+        <v>0.4069150284711363</v>
       </c>
       <c r="L17">
-        <v>0.1496200036260049</v>
+        <v>0.1751101670434352</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1356229604746737</v>
       </c>
       <c r="N17">
-        <v>0.1082783175888338</v>
+        <v>0.1533940194993235</v>
       </c>
       <c r="O17">
-        <v>0.4429931543441512</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9076172151749091</v>
+        <v>0.120706539005532</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4308730855406253</v>
+      </c>
+      <c r="R17">
+        <v>0.9338782675945438</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.092291317108959</v>
+        <v>2.925491393698451</v>
       </c>
       <c r="C18">
-        <v>0.7289877161409493</v>
+        <v>0.7732804809982667</v>
       </c>
       <c r="D18">
-        <v>0.03046470016779423</v>
+        <v>0.03258660290392967</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.068580231121459</v>
+        <v>0.9615253915149964</v>
       </c>
       <c r="G18">
-        <v>0.9049861782442576</v>
+        <v>0.7858624754755112</v>
       </c>
       <c r="H18">
-        <v>0.07396001664354657</v>
+        <v>0.07363150899912796</v>
       </c>
       <c r="I18">
-        <v>0.001864028582117427</v>
+        <v>0.001938578198801721</v>
       </c>
       <c r="J18">
-        <v>0.5965952612166632</v>
+        <v>0.5626642569710043</v>
       </c>
       <c r="K18">
-        <v>0.5136582823596427</v>
+        <v>0.4386612565099313</v>
       </c>
       <c r="L18">
-        <v>0.1274593639387689</v>
+        <v>0.1878192835665864</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.146462656793414</v>
       </c>
       <c r="N18">
-        <v>0.1387041293919182</v>
+        <v>0.1302202771719436</v>
       </c>
       <c r="O18">
-        <v>0.4720937407907186</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8900522726023539</v>
+        <v>0.1536067376389312</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4595054836399584</v>
+      </c>
+      <c r="R18">
+        <v>0.9082350885857693</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.17227594094868</v>
+        <v>2.990974539097181</v>
       </c>
       <c r="C19">
-        <v>0.7106918827068966</v>
+        <v>0.7593190644402341</v>
       </c>
       <c r="D19">
-        <v>0.03289636275001406</v>
+        <v>0.03563727179586706</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.173637312738606</v>
+        <v>1.053378900309426</v>
       </c>
       <c r="G19">
-        <v>0.9944849210957187</v>
+        <v>0.8593622682459454</v>
       </c>
       <c r="H19">
-        <v>0.02841634101858403</v>
+        <v>0.02813020495973717</v>
       </c>
       <c r="I19">
-        <v>0.001911837701878305</v>
+        <v>0.002040342453740962</v>
       </c>
       <c r="J19">
-        <v>0.6423233851245556</v>
+        <v>0.6049157767752149</v>
       </c>
       <c r="K19">
-        <v>0.5640506481435281</v>
+        <v>0.4789902112974787</v>
       </c>
       <c r="L19">
-        <v>0.1082795916881949</v>
+        <v>0.2030886993103174</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1614679577304834</v>
       </c>
       <c r="N19">
-        <v>0.1880643153579484</v>
+        <v>0.1094867860653181</v>
       </c>
       <c r="O19">
-        <v>0.5208799766554648</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8703274768311111</v>
+        <v>0.2065459443512978</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5067973449179775</v>
+      </c>
+      <c r="R19">
+        <v>0.8808943317317883</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.460927917348954</v>
+        <v>3.23711443349282</v>
       </c>
       <c r="C20">
-        <v>0.7193563858672007</v>
+        <v>0.7738519608606964</v>
       </c>
       <c r="D20">
-        <v>0.03845519285574639</v>
+        <v>0.04258163527424585</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.374059227175479</v>
+        <v>1.219532505115097</v>
       </c>
       <c r="G20">
-        <v>1.170707974103792</v>
+        <v>1.017226180110356</v>
       </c>
       <c r="H20">
-        <v>0.001074695861418284</v>
+        <v>0.0009583409048579128</v>
       </c>
       <c r="I20">
-        <v>0.001674401542324233</v>
+        <v>0.001960223411321849</v>
       </c>
       <c r="J20">
-        <v>0.7280092387630646</v>
+        <v>0.6570777135357986</v>
       </c>
       <c r="K20">
-        <v>0.6541123422251189</v>
+        <v>0.5459542135751718</v>
       </c>
       <c r="L20">
-        <v>0.0962170340786539</v>
+        <v>0.2253837744354144</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1902387409992308</v>
       </c>
       <c r="N20">
-        <v>0.2875283116649285</v>
+        <v>0.09446618048021627</v>
       </c>
       <c r="O20">
-        <v>0.6249469583759577</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.839450950293827</v>
+        <v>0.3125888662159468</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6063576407446973</v>
+      </c>
+      <c r="R20">
+        <v>0.8412164793743422</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.908084194891217</v>
+        <v>3.60161066510301</v>
       </c>
       <c r="C21">
-        <v>0.8072822832091049</v>
+        <v>0.8470910205527957</v>
       </c>
       <c r="D21">
-        <v>0.04132864658913959</v>
+        <v>0.048096753303561</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.489073207571607</v>
+        <v>1.273640397946863</v>
       </c>
       <c r="G21">
-        <v>1.283856015277024</v>
+        <v>1.20024737971454</v>
       </c>
       <c r="H21">
-        <v>0.0001236134787565568</v>
+        <v>0.0001385175296217955</v>
       </c>
       <c r="I21">
-        <v>0.001808967252118876</v>
+        <v>0.002172865251775846</v>
       </c>
       <c r="J21">
-        <v>0.7757539831969211</v>
+        <v>0.5502300992613414</v>
       </c>
       <c r="K21">
-        <v>0.6897440026440691</v>
+        <v>0.5505557103786032</v>
       </c>
       <c r="L21">
-        <v>0.1017073173065217</v>
+        <v>0.2189314403922573</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2027027742355969</v>
       </c>
       <c r="N21">
-        <v>0.3251588301019126</v>
+        <v>0.09880795889991845</v>
       </c>
       <c r="O21">
-        <v>0.7078571924718489</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.800194780610763</v>
+        <v>0.3523765782262416</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6794454014240188</v>
+      </c>
+      <c r="R21">
+        <v>0.8163842259931897</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.198573563563798</v>
+        <v>3.834769341200911</v>
       </c>
       <c r="C22">
-        <v>0.8643853871151919</v>
+        <v>0.8924352186607791</v>
       </c>
       <c r="D22">
-        <v>0.04289229099893888</v>
+        <v>0.05162354507535483</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.560472380295494</v>
+        <v>1.302807771501591</v>
       </c>
       <c r="G22">
-        <v>1.35545964244821</v>
+        <v>1.328476108281308</v>
       </c>
       <c r="H22">
-        <v>1.118081922379943E-06</v>
+        <v>1.573349455163964E-06</v>
       </c>
       <c r="I22">
-        <v>0.002032042342925422</v>
+        <v>0.002243489214968974</v>
       </c>
       <c r="J22">
-        <v>0.8058499331424969</v>
+        <v>0.480065233911148</v>
       </c>
       <c r="K22">
-        <v>0.7118588710763021</v>
+        <v>0.5514604703699462</v>
       </c>
       <c r="L22">
-        <v>0.1056049682442364</v>
+        <v>0.2140394915713166</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2104043821669563</v>
       </c>
       <c r="N22">
-        <v>0.344460702660939</v>
+        <v>0.1020718499037336</v>
       </c>
       <c r="O22">
-        <v>0.7585612389055498</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7755247899042104</v>
+        <v>0.3727355652348479</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7232347686222553</v>
+      </c>
+      <c r="R22">
+        <v>0.8025426847502146</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.048796632973563</v>
+        <v>3.720377317868042</v>
       </c>
       <c r="C23">
-        <v>0.8321653500047432</v>
+        <v>0.8693410245388122</v>
       </c>
       <c r="D23">
-        <v>0.04198395937818589</v>
+        <v>0.04934611464422645</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.525654094390205</v>
+        <v>1.294651807047643</v>
       </c>
       <c r="G23">
-        <v>1.320704801777822</v>
+        <v>1.252140586289642</v>
       </c>
       <c r="H23">
-        <v>2.85080471948973E-05</v>
+        <v>4.475053772545756E-05</v>
       </c>
       <c r="I23">
-        <v>0.001575180494160833</v>
+        <v>0.001820467602719589</v>
       </c>
       <c r="J23">
-        <v>0.7915203555240566</v>
+        <v>0.5322778543070683</v>
       </c>
       <c r="K23">
-        <v>0.7023278388210699</v>
+        <v>0.554902945066722</v>
       </c>
       <c r="L23">
-        <v>0.1035368302850355</v>
+        <v>0.2179857607400777</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2078745811218425</v>
       </c>
       <c r="N23">
-        <v>0.3336753194524391</v>
+        <v>0.1003844718585416</v>
       </c>
       <c r="O23">
-        <v>0.7319152597393952</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7883849014303408</v>
+        <v>0.3614631765319984</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7010193908160289</v>
+      </c>
+      <c r="R23">
+        <v>0.8082266093463204</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.473940381181194</v>
+        <v>3.248636291486605</v>
       </c>
       <c r="C24">
-        <v>0.7140229651478478</v>
+        <v>0.7688933329042982</v>
       </c>
       <c r="D24">
-        <v>0.03871643639888944</v>
+        <v>0.042894777400452</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.390796451997829</v>
+        <v>1.234603294234319</v>
       </c>
       <c r="G24">
-        <v>1.185823735772743</v>
+        <v>1.029626116696676</v>
       </c>
       <c r="H24">
-        <v>0.0009089805092952208</v>
+        <v>0.0007966577601892233</v>
       </c>
       <c r="I24">
-        <v>0.001176963467855785</v>
+        <v>0.001364588217306562</v>
       </c>
       <c r="J24">
-        <v>0.7357251165338852</v>
+        <v>0.6650194541404488</v>
       </c>
       <c r="K24">
-        <v>0.6635732704803772</v>
+        <v>0.5538874314116669</v>
       </c>
       <c r="L24">
-        <v>0.09573626378902755</v>
+        <v>0.2284069608489965</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1931645608154327</v>
       </c>
       <c r="N24">
-        <v>0.2938308719725029</v>
+        <v>0.09373982436259709</v>
       </c>
       <c r="O24">
-        <v>0.6305840198342949</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8389242979995473</v>
+        <v>0.319313300430764</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6118498767154961</v>
+      </c>
+      <c r="R24">
+        <v>0.8387958801056641</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.855555782347665</v>
+        <v>2.684002465546996</v>
       </c>
       <c r="C25">
-        <v>0.5884580305356053</v>
+        <v>0.630707524220611</v>
       </c>
       <c r="D25">
-        <v>0.03528453797196818</v>
+        <v>0.03905272133020077</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.250242726821014</v>
+        <v>1.12439178271066</v>
       </c>
       <c r="G25">
-        <v>1.045229404065481</v>
+        <v>0.9091240859850842</v>
       </c>
       <c r="H25">
-        <v>0.003357490677548092</v>
+        <v>0.002858995632571637</v>
       </c>
       <c r="I25">
-        <v>0.002436893785852767</v>
+        <v>0.002139783801938577</v>
       </c>
       <c r="J25">
-        <v>0.678262606296073</v>
+        <v>0.6316251763280292</v>
       </c>
       <c r="K25">
-        <v>0.6239841905247658</v>
+        <v>0.5318708020317473</v>
       </c>
       <c r="L25">
-        <v>0.08737455297103924</v>
+        <v>0.231930189337195</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1712440129359898</v>
       </c>
       <c r="N25">
-        <v>0.2512370564392938</v>
+        <v>0.0858765801042356</v>
       </c>
       <c r="O25">
-        <v>0.5217539232004498</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8962425923821247</v>
+        <v>0.2733321583606596</v>
       </c>
       <c r="Q25">
+        <v>0.507704754615844</v>
+      </c>
+      <c r="R25">
+        <v>0.8832501512878395</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
